--- a/raw_data/20200818_saline/20200818_Sensor1_Test_54.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_54.xlsx
@@ -1,538 +1,954 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446A0D43-1610-4421-BEE2-76B50348314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>47888.833832</v>
+        <v>47888.833831999997</v>
       </c>
       <c r="B2" s="1">
-        <v>13.302454</v>
+        <v>13.302454000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>902.182000</v>
+        <v>902.18200000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-200.724000</v>
+        <v>-200.72399999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>47899.230483</v>
+        <v>47899.230482999999</v>
       </c>
       <c r="G2" s="1">
         <v>13.305342</v>
       </c>
       <c r="H2" s="1">
-        <v>919.602000</v>
+        <v>919.60199999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.342000</v>
+        <v>-169.34200000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>47909.734290</v>
+        <v>47909.73429</v>
       </c>
       <c r="L2" s="1">
-        <v>13.308260</v>
+        <v>13.308260000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>942.505000</v>
+        <v>942.505</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.082000</v>
+        <v>-120.08199999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>47920.258399</v>
+        <v>47920.258398999998</v>
       </c>
       <c r="Q2" s="1">
         <v>13.311183</v>
       </c>
       <c r="R2" s="1">
-        <v>949.273000</v>
+        <v>949.27300000000002</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.642000</v>
+        <v>-103.642</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>47930.451191</v>
@@ -541,118 +957,118 @@
         <v>13.314014</v>
       </c>
       <c r="W2" s="1">
-        <v>955.687000</v>
+        <v>955.68700000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.447700</v>
+        <v>-88.447699999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>47940.912804</v>
       </c>
       <c r="AA2" s="1">
-        <v>13.316920</v>
+        <v>13.31692</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.577000</v>
+        <v>962.577</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.940100</v>
+        <v>-76.940100000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>47951.484005</v>
+        <v>47951.484004999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>13.319857</v>
+        <v>13.319857000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.285000</v>
+        <v>967.28499999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.014600</v>
+        <v>-75.014600000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>47962.240247</v>
+        <v>47962.240247000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>13.322845</v>
+        <v>13.322844999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.506000</v>
+        <v>974.50599999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.746100</v>
+        <v>-79.746099999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>47972.780730</v>
+        <v>47972.780729999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>13.325772</v>
+        <v>13.325772000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.560000</v>
+        <v>982.56</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.398900</v>
+        <v>-91.398899999999998</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>47983.785995</v>
+        <v>47983.785994999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>13.328829</v>
+        <v>13.328829000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>992.411000</v>
+        <v>992.41099999999994</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.150000</v>
+        <v>-109.15</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>47994.921150</v>
+        <v>47994.921150000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>13.331923</v>
       </c>
       <c r="BA2" s="1">
-        <v>1000.690000</v>
+        <v>1000.69</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.850000</v>
+        <v>-124.85</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>48006.195746</v>
+        <v>48006.195745999998</v>
       </c>
       <c r="BE2" s="1">
         <v>13.335054</v>
       </c>
       <c r="BF2" s="1">
-        <v>1039.420000</v>
+        <v>1039.42</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.046000</v>
+        <v>-197.04599999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>48016.898385</v>
@@ -661,225 +1077,225 @@
         <v>13.338027</v>
       </c>
       <c r="BK2" s="1">
-        <v>1106.150000</v>
+        <v>1106.1500000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-314.246000</v>
+        <v>-314.24599999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>48027.794498</v>
+        <v>48027.794498000003</v>
       </c>
       <c r="BO2" s="1">
         <v>13.341054</v>
       </c>
       <c r="BP2" s="1">
-        <v>1214.460000</v>
+        <v>1214.46</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-499.092000</v>
+        <v>-499.09199999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>48038.141043</v>
+        <v>48038.141043000003</v>
       </c>
       <c r="BT2" s="1">
         <v>13.343928</v>
       </c>
       <c r="BU2" s="1">
-        <v>1336.080000</v>
+        <v>1336.08</v>
       </c>
       <c r="BV2" s="1">
-        <v>-702.304000</v>
+        <v>-702.30399999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>48048.806022</v>
+        <v>48048.806021999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>13.346891</v>
+        <v>13.346890999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="CA2" s="1">
-        <v>-918.536000</v>
+        <v>-918.53599999999994</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>48060.005237</v>
+        <v>48060.005236999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>13.350001</v>
+        <v>13.350001000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1830.840000</v>
+        <v>1830.84</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1433.900000</v>
+        <v>-1433.9</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>47889.226170</v>
+        <v>47889.226170000002</v>
       </c>
       <c r="B3" s="1">
-        <v>13.302563</v>
+        <v>13.302562999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>902.242000</v>
+        <v>902.24199999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>-200.653000</v>
+        <v>-200.65299999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>47899.642187</v>
+        <v>47899.642186999998</v>
       </c>
       <c r="G3" s="1">
         <v>13.305456</v>
       </c>
       <c r="H3" s="1">
-        <v>919.839000</v>
+        <v>919.83900000000006</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.429000</v>
+        <v>-169.429</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>47910.087944</v>
+        <v>47910.087943999999</v>
       </c>
       <c r="L3" s="1">
         <v>13.308358</v>
       </c>
       <c r="M3" s="1">
-        <v>942.654000</v>
+        <v>942.654</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.942000</v>
+        <v>-119.94199999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>47920.601104</v>
+        <v>47920.601104000001</v>
       </c>
       <c r="Q3" s="1">
         <v>13.311278</v>
       </c>
       <c r="R3" s="1">
-        <v>949.232000</v>
+        <v>949.23199999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.644000</v>
+        <v>-103.64400000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>47930.833601</v>
+        <v>47930.833600999998</v>
       </c>
       <c r="V3" s="1">
-        <v>13.314120</v>
+        <v>13.314120000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>955.634000</v>
+        <v>955.63400000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.474900</v>
+        <v>-88.474900000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>47941.649331</v>
+        <v>47941.649331000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>13.317125</v>
+        <v>13.317125000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.574000</v>
+        <v>962.57399999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.040100</v>
+        <v>-77.040099999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>47952.210679</v>
+        <v>47952.210679000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>13.320059</v>
+        <v>13.320059000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.261000</v>
+        <v>967.26099999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.950400</v>
+        <v>-74.950400000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>47962.585463</v>
+        <v>47962.585463000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>13.322940</v>
+        <v>13.322939999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.468000</v>
+        <v>974.46799999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.744000</v>
+        <v>-79.744</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>47973.145289</v>
       </c>
       <c r="AP3" s="1">
-        <v>13.325874</v>
+        <v>13.325874000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.560000</v>
+        <v>982.56</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.417600</v>
+        <v>-91.417599999999993</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>47984.188752</v>
+        <v>47984.188752000002</v>
       </c>
       <c r="AU3" s="1">
         <v>13.328941</v>
       </c>
       <c r="AV3" s="1">
-        <v>992.452000</v>
+        <v>992.452</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.150000</v>
+        <v>-109.15</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>47995.621003</v>
@@ -888,13 +1304,13 @@
         <v>13.332117</v>
       </c>
       <c r="BA3" s="1">
-        <v>1000.700000</v>
+        <v>1000.7</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.846000</v>
+        <v>-124.846</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>48006.304119</v>
@@ -903,13 +1319,13 @@
         <v>13.335084</v>
       </c>
       <c r="BF3" s="1">
-        <v>1039.410000</v>
+        <v>1039.4100000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.066000</v>
+        <v>-197.066</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>48017.007007</v>
@@ -918,347 +1334,347 @@
         <v>13.338058</v>
       </c>
       <c r="BK3" s="1">
-        <v>1106.140000</v>
+        <v>1106.1400000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.263000</v>
+        <v>-314.26299999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>48028.223078</v>
+        <v>48028.223078000003</v>
       </c>
       <c r="BO3" s="1">
         <v>13.341173</v>
       </c>
       <c r="BP3" s="1">
-        <v>1214.440000</v>
+        <v>1214.44</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-499.089000</v>
+        <v>-499.089</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>48038.595380</v>
+        <v>48038.595379999999</v>
       </c>
       <c r="BT3" s="1">
         <v>13.344054</v>
       </c>
       <c r="BU3" s="1">
-        <v>1336.190000</v>
+        <v>1336.19</v>
       </c>
       <c r="BV3" s="1">
-        <v>-702.350000</v>
+        <v>-702.35</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>48049.290613</v>
+        <v>48049.290612999997</v>
       </c>
       <c r="BY3" s="1">
         <v>13.347025</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1472.730000</v>
+        <v>1472.73</v>
       </c>
       <c r="CA3" s="1">
-        <v>-918.596000</v>
+        <v>-918.596</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>48060.599142</v>
+        <v>48060.599141999999</v>
       </c>
       <c r="CD3" s="1">
         <v>13.350166</v>
       </c>
       <c r="CE3" s="1">
-        <v>1831.440000</v>
+        <v>1831.44</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1431.980000</v>
+        <v>-1431.98</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>47889.569896</v>
+        <v>47889.569896000001</v>
       </c>
       <c r="B4" s="1">
-        <v>13.302658</v>
+        <v>13.302657999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>902.260000</v>
+        <v>902.26</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.779000</v>
+        <v>-200.779</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>47899.986874</v>
+        <v>47899.986874000002</v>
       </c>
       <c r="G4" s="1">
         <v>13.305552</v>
       </c>
       <c r="H4" s="1">
-        <v>919.597000</v>
+        <v>919.59699999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.508000</v>
+        <v>-169.50800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>47910.431170</v>
+        <v>47910.431170000003</v>
       </c>
       <c r="L4" s="1">
         <v>13.308453</v>
       </c>
       <c r="M4" s="1">
-        <v>942.542000</v>
+        <v>942.54200000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.913000</v>
+        <v>-119.913</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>47921.155136</v>
+        <v>47921.155136000001</v>
       </c>
       <c r="Q4" s="1">
         <v>13.311432</v>
       </c>
       <c r="R4" s="1">
-        <v>949.202000</v>
+        <v>949.202</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.698000</v>
+        <v>-103.69799999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>47931.520064</v>
+        <v>47931.520063999997</v>
       </c>
       <c r="V4" s="1">
         <v>13.314311</v>
       </c>
       <c r="W4" s="1">
-        <v>955.710000</v>
+        <v>955.71</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.551200</v>
+        <v>-88.551199999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>47941.993554</v>
+        <v>47941.993554000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>13.317220</v>
+        <v>13.317220000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.677000</v>
+        <v>962.67700000000002</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.997000</v>
+        <v>-76.997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>47952.553908</v>
+        <v>47952.553908000002</v>
       </c>
       <c r="AF4" s="1">
         <v>13.320154</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.247000</v>
+        <v>967.24699999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.023400</v>
+        <v>-75.023399999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>47962.931207</v>
+        <v>47962.931207000001</v>
       </c>
       <c r="AK4" s="1">
         <v>13.323036</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.489000</v>
+        <v>974.48900000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.728300</v>
+        <v>-79.728300000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>47973.821874</v>
+        <v>47973.821874000001</v>
       </c>
       <c r="AP4" s="1">
         <v>13.326062</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.575000</v>
+        <v>982.57500000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.419200</v>
+        <v>-91.419200000000004</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>47984.862779</v>
+        <v>47984.862779000003</v>
       </c>
       <c r="AU4" s="1">
         <v>13.329129</v>
       </c>
       <c r="AV4" s="1">
-        <v>992.430000</v>
+        <v>992.43</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.155000</v>
+        <v>-109.155</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>47996.055509</v>
+        <v>47996.055508999998</v>
       </c>
       <c r="AZ4" s="1">
         <v>13.332238</v>
       </c>
       <c r="BA4" s="1">
-        <v>1000.720000</v>
+        <v>1000.72</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.845000</v>
+        <v>-124.845</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>48006.657992</v>
       </c>
       <c r="BE4" s="1">
-        <v>13.335183</v>
+        <v>13.335183000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1039.410000</v>
+        <v>1039.4100000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.062000</v>
+        <v>-197.06200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>48017.382480</v>
+        <v>48017.38248</v>
       </c>
       <c r="BJ4" s="1">
-        <v>13.338162</v>
+        <v>13.338162000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1106.100000</v>
+        <v>1106.0999999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-314.239000</v>
+        <v>-314.23899999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>48028.615904</v>
+        <v>48028.615903999998</v>
       </c>
       <c r="BO4" s="1">
         <v>13.341282</v>
       </c>
       <c r="BP4" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-499.111000</v>
+        <v>-499.11099999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>48039.019955</v>
+        <v>48039.019955000003</v>
       </c>
       <c r="BT4" s="1">
         <v>13.344172</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.300000</v>
+        <v>1336.3</v>
       </c>
       <c r="BV4" s="1">
-        <v>-702.403000</v>
+        <v>-702.40300000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>48049.741477</v>
+        <v>48049.741477000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>13.347150</v>
+        <v>13.347149999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1472.810000</v>
+        <v>1472.81</v>
       </c>
       <c r="CA4" s="1">
-        <v>-918.675000</v>
+        <v>-918.67499999999995</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>48061.140533</v>
+        <v>48061.140532999998</v>
       </c>
       <c r="CD4" s="1">
         <v>13.350317</v>
       </c>
       <c r="CE4" s="1">
-        <v>1830.600000</v>
+        <v>1830.6</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1433.260000</v>
+        <v>-1433.26</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>47889.920073</v>
+        <v>47889.920073000001</v>
       </c>
       <c r="B5" s="1">
         <v>13.302756</v>
       </c>
       <c r="C5" s="1">
-        <v>902.392000</v>
+        <v>902.39200000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>-200.681000</v>
+        <v>-200.68100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>47900.332122</v>
@@ -1267,148 +1683,148 @@
         <v>13.305648</v>
       </c>
       <c r="H5" s="1">
-        <v>919.707000</v>
+        <v>919.70699999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.669000</v>
+        <v>-169.66900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>47911.124043</v>
+        <v>47911.124043000003</v>
       </c>
       <c r="L5" s="1">
         <v>13.308646</v>
       </c>
       <c r="M5" s="1">
-        <v>942.808000</v>
+        <v>942.80799999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.010000</v>
+        <v>-120.01</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>47921.299967</v>
+        <v>47921.299966999999</v>
       </c>
       <c r="Q5" s="1">
         <v>13.311472</v>
       </c>
       <c r="R5" s="1">
-        <v>949.203000</v>
+        <v>949.20299999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.679000</v>
+        <v>-103.679</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>47931.867233</v>
+        <v>47931.867232999997</v>
       </c>
       <c r="V5" s="1">
         <v>13.314408</v>
       </c>
       <c r="W5" s="1">
-        <v>955.637000</v>
+        <v>955.63699999999994</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.523700</v>
+        <v>-88.523700000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>47942.344723</v>
+        <v>47942.344723000002</v>
       </c>
       <c r="AA5" s="1">
         <v>13.317318</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.547000</v>
+        <v>962.54700000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.006000</v>
+        <v>-77.006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>47952.898100</v>
+        <v>47952.898099999999</v>
       </c>
       <c r="AF5" s="1">
         <v>13.320249</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.286000</v>
+        <v>967.28599999999994</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.843700</v>
+        <v>-74.843699999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>47963.584901</v>
+        <v>47963.584901000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>13.323218</v>
+        <v>13.323218000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.465000</v>
+        <v>974.46500000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.743200</v>
+        <v>-79.743200000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>47974.227560</v>
+        <v>47974.227559999999</v>
       </c>
       <c r="AP5" s="1">
         <v>13.326174</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.528000</v>
+        <v>982.52800000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.397000</v>
+        <v>-91.397000000000006</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>47985.316122</v>
+        <v>47985.316121999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>13.329254</v>
+        <v>13.329254000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>992.425000</v>
+        <v>992.42499999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.147000</v>
+        <v>-109.14700000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>47996.413610</v>
+        <v>47996.413610000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>13.332337</v>
+        <v>13.332337000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1000.720000</v>
+        <v>1000.72</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.850000</v>
+        <v>-124.85</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>48007.020805</v>
@@ -1417,362 +1833,362 @@
         <v>13.335284</v>
       </c>
       <c r="BF5" s="1">
-        <v>1039.420000</v>
+        <v>1039.42</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.047000</v>
+        <v>-197.047</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>48017.756498</v>
+        <v>48017.756498000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>13.338266</v>
+        <v>13.338266000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1106.150000</v>
+        <v>1106.1500000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-314.248000</v>
+        <v>-314.24799999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>48029.041475</v>
+        <v>48029.041474999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>13.341400</v>
+        <v>13.3414</v>
       </c>
       <c r="BP5" s="1">
-        <v>1214.480000</v>
+        <v>1214.48</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-499.127000</v>
+        <v>-499.12700000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>48039.430641</v>
+        <v>48039.430640999999</v>
       </c>
       <c r="BT5" s="1">
         <v>13.344286</v>
       </c>
       <c r="BU5" s="1">
-        <v>1336.340000</v>
+        <v>1336.34</v>
       </c>
       <c r="BV5" s="1">
-        <v>-702.435000</v>
+        <v>-702.43499999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>48050.194324</v>
+        <v>48050.194323999996</v>
       </c>
       <c r="BY5" s="1">
-        <v>13.347276</v>
+        <v>13.347276000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1472.930000</v>
+        <v>1472.93</v>
       </c>
       <c r="CA5" s="1">
-        <v>-918.611000</v>
+        <v>-918.61099999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>48061.677205</v>
       </c>
       <c r="CD5" s="1">
-        <v>13.350466</v>
+        <v>13.350466000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1831.890000</v>
+        <v>1831.89</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1433.140000</v>
+        <v>-1433.14</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>47890.599620</v>
+        <v>47890.599620000001</v>
       </c>
       <c r="B6" s="1">
         <v>13.302944</v>
       </c>
       <c r="C6" s="1">
-        <v>902.249000</v>
+        <v>902.24900000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.818000</v>
+        <v>-200.81800000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>47901.018056</v>
+        <v>47901.018056000001</v>
       </c>
       <c r="G6" s="1">
         <v>13.305838</v>
       </c>
       <c r="H6" s="1">
-        <v>919.504000</v>
+        <v>919.50400000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-169.495000</v>
+        <v>-169.495</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>47911.469790</v>
+        <v>47911.469790000003</v>
       </c>
       <c r="L6" s="1">
-        <v>13.308742</v>
+        <v>13.308742000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>942.660000</v>
+        <v>942.66</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.940000</v>
+        <v>-119.94</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>47921.647661</v>
+        <v>47921.647661000003</v>
       </c>
       <c r="Q6" s="1">
         <v>13.311569</v>
       </c>
       <c r="R6" s="1">
-        <v>949.137000</v>
+        <v>949.13699999999994</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.666000</v>
+        <v>-103.666</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>47932.207023</v>
+        <v>47932.207023000003</v>
       </c>
       <c r="V6" s="1">
-        <v>13.314502</v>
+        <v>13.314501999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>955.727000</v>
+        <v>955.72699999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.641100</v>
+        <v>-88.641099999999994</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>47942.996961</v>
+        <v>47942.996960999997</v>
       </c>
       <c r="AA6" s="1">
         <v>13.317499</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.656000</v>
+        <v>962.65599999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.982400</v>
+        <v>-76.982399999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>47953.550339</v>
+        <v>47953.550339000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>13.320431</v>
+        <v>13.320430999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.227000</v>
+        <v>967.22699999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.949900</v>
+        <v>-74.9499</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>47963.980741</v>
+        <v>47963.980740999999</v>
       </c>
       <c r="AK6" s="1">
         <v>13.323328</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.469000</v>
+        <v>974.46900000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.727400</v>
+        <v>-79.727400000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>47974.607533</v>
+        <v>47974.607533000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>13.326280</v>
+        <v>13.326280000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.570000</v>
+        <v>982.57</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.411200</v>
+        <v>-91.411199999999994</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>47985.683160</v>
+        <v>47985.68316</v>
       </c>
       <c r="AU6" s="1">
-        <v>13.329356</v>
+        <v>13.329356000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>992.450000</v>
+        <v>992.45</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.132000</v>
+        <v>-109.13200000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>47996.776187</v>
+        <v>47996.776187000003</v>
       </c>
       <c r="AZ6" s="1">
         <v>13.332438</v>
       </c>
       <c r="BA6" s="1">
-        <v>1000.710000</v>
+        <v>1000.71</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.849000</v>
+        <v>-124.849</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>48007.446124</v>
+        <v>48007.446124000002</v>
       </c>
       <c r="BE6" s="1">
         <v>13.335402</v>
       </c>
       <c r="BF6" s="1">
-        <v>1039.410000</v>
+        <v>1039.4100000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.042000</v>
+        <v>-197.042</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>48018.177111</v>
+        <v>48018.177110999997</v>
       </c>
       <c r="BJ6" s="1">
         <v>13.338383</v>
       </c>
       <c r="BK6" s="1">
-        <v>1106.130000</v>
+        <v>1106.1300000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-314.267000</v>
+        <v>-314.267</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>48029.439764</v>
+        <v>48029.439764000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>13.341511</v>
+        <v>13.341511000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1214.440000</v>
+        <v>1214.44</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-499.126000</v>
+        <v>-499.12599999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>48039.851023</v>
+        <v>48039.851023000003</v>
       </c>
       <c r="BT6" s="1">
         <v>13.344403</v>
       </c>
       <c r="BU6" s="1">
-        <v>1336.470000</v>
+        <v>1336.47</v>
       </c>
       <c r="BV6" s="1">
-        <v>-702.445000</v>
+        <v>-702.44500000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>48050.644728</v>
+        <v>48050.644727999999</v>
       </c>
       <c r="BY6" s="1">
         <v>13.347401</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1472.880000</v>
+        <v>1472.88</v>
       </c>
       <c r="CA6" s="1">
-        <v>-918.636000</v>
+        <v>-918.63599999999997</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>48062.217845</v>
+        <v>48062.217844999999</v>
       </c>
       <c r="CD6" s="1">
         <v>13.350616</v>
       </c>
       <c r="CE6" s="1">
-        <v>1830.630000</v>
+        <v>1830.63</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1432.580000</v>
+        <v>-1432.58</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>47890.940838</v>
+        <v>47890.940838000002</v>
       </c>
       <c r="B7" s="1">
         <v>13.303039</v>
       </c>
       <c r="C7" s="1">
-        <v>902.271000</v>
+        <v>902.27099999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.774000</v>
+        <v>-200.774</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>47901.364296</v>
@@ -1781,315 +2197,315 @@
         <v>13.305935</v>
       </c>
       <c r="H7" s="1">
-        <v>920.006000</v>
+        <v>920.00599999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.255000</v>
+        <v>-169.255</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>47911.815962</v>
+        <v>47911.815962000001</v>
       </c>
       <c r="L7" s="1">
         <v>13.308838</v>
       </c>
       <c r="M7" s="1">
-        <v>942.520000</v>
+        <v>942.52</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.962000</v>
+        <v>-119.962</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>47922.301884</v>
       </c>
       <c r="Q7" s="1">
-        <v>13.311751</v>
+        <v>13.311750999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>949.225000</v>
+        <v>949.22500000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.616000</v>
+        <v>-103.616</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>47932.858271</v>
+        <v>47932.858270999997</v>
       </c>
       <c r="V7" s="1">
         <v>13.314683</v>
       </c>
       <c r="W7" s="1">
-        <v>955.618000</v>
+        <v>955.61800000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.524900</v>
+        <v>-88.524900000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>47943.392890</v>
+        <v>47943.392890000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>13.317609</v>
+        <v>13.317608999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.655000</v>
+        <v>962.65499999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.015000</v>
+        <v>-77.015000000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>47953.930274</v>
+        <v>47953.930273999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>13.320536</v>
+        <v>13.320536000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.254000</v>
+        <v>967.25400000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.961400</v>
+        <v>-74.961399999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>47964.327413</v>
+        <v>47964.327412999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>13.323424</v>
+        <v>13.323423999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.476000</v>
+        <v>974.476</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.770400</v>
+        <v>-79.770399999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>47974.965642</v>
+        <v>47974.965642000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>13.326379</v>
+        <v>13.326378999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.559000</v>
+        <v>982.55899999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.392000</v>
+        <v>-91.391999999999996</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>47986.049209</v>
+        <v>47986.049208999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>13.329458</v>
+        <v>13.329458000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>992.437000</v>
+        <v>992.43700000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.157000</v>
+        <v>-109.157</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>47997.205758</v>
+        <v>47997.205757999996</v>
       </c>
       <c r="AZ7" s="1">
         <v>13.332557</v>
       </c>
       <c r="BA7" s="1">
-        <v>1000.690000</v>
+        <v>1000.69</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.843000</v>
+        <v>-124.843</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>48007.744220</v>
+        <v>48007.74422</v>
       </c>
       <c r="BE7" s="1">
         <v>13.335485</v>
       </c>
       <c r="BF7" s="1">
-        <v>1039.390000</v>
+        <v>1039.3900000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.026000</v>
+        <v>-197.02600000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>48018.509422</v>
+        <v>48018.509422000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>13.338475</v>
+        <v>13.338475000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.120000</v>
+        <v>1106.1199999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-314.240000</v>
+        <v>-314.24</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>48029.860830</v>
+        <v>48029.860829999998</v>
       </c>
       <c r="BO7" s="1">
         <v>13.341628</v>
       </c>
       <c r="BP7" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-499.098000</v>
+        <v>-499.09800000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>48040.264945</v>
+        <v>48040.264945000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>13.344518</v>
+        <v>13.344518000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1336.470000</v>
+        <v>1336.47</v>
       </c>
       <c r="BV7" s="1">
-        <v>-702.405000</v>
+        <v>-702.40499999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>48051.100034</v>
+        <v>48051.100034000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>13.347528</v>
+        <v>13.347528000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1472.900000</v>
+        <v>1472.9</v>
       </c>
       <c r="CA7" s="1">
-        <v>-918.696000</v>
+        <v>-918.69600000000003</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>48062.757526</v>
+        <v>48062.757526000001</v>
       </c>
       <c r="CD7" s="1">
         <v>13.350766</v>
       </c>
       <c r="CE7" s="1">
-        <v>1831.450000</v>
+        <v>1831.45</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1433.710000</v>
+        <v>-1433.71</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>47891.287541</v>
+        <v>47891.287540999998</v>
       </c>
       <c r="B8" s="1">
-        <v>13.303135</v>
+        <v>13.303134999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>902.299000</v>
+        <v>902.29899999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.753000</v>
+        <v>-200.75299999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>47901.710472</v>
+        <v>47901.710471999999</v>
       </c>
       <c r="G8" s="1">
-        <v>13.306031</v>
+        <v>13.306031000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>919.503000</v>
+        <v>919.50300000000004</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.616000</v>
+        <v>-169.61600000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>47912.461290</v>
+        <v>47912.461289999999</v>
       </c>
       <c r="L8" s="1">
-        <v>13.309017</v>
+        <v>13.309017000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>942.575000</v>
+        <v>942.57500000000005</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.075000</v>
+        <v>-120.075</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>47922.695708</v>
+        <v>47922.695707999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>13.311860</v>
+        <v>13.311859999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>949.235000</v>
+        <v>949.23500000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.666000</v>
+        <v>-103.666</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>47933.236221</v>
+        <v>47933.236220999999</v>
       </c>
       <c r="V8" s="1">
         <v>13.314788</v>
       </c>
       <c r="W8" s="1">
-        <v>955.569000</v>
+        <v>955.56899999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.481500</v>
+        <v>-88.481499999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>47943.738481</v>
@@ -2098,542 +2514,542 @@
         <v>13.317705</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.537000</v>
+        <v>962.53700000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.979200</v>
+        <v>-76.979200000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>47954.271064</v>
       </c>
       <c r="AF8" s="1">
-        <v>13.320631</v>
+        <v>13.320631000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.245000</v>
+        <v>967.245</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.028900</v>
+        <v>-75.028899999999993</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>47964.677588</v>
+        <v>47964.677587999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>13.323522</v>
+        <v>13.323522000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.474000</v>
+        <v>974.47400000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.725500</v>
+        <v>-79.725499999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>47975.388230</v>
+        <v>47975.388229999997</v>
       </c>
       <c r="AP8" s="1">
         <v>13.326497</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.557000</v>
+        <v>982.55700000000002</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.407500</v>
+        <v>-91.407499999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>47986.473784</v>
+        <v>47986.473784000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>13.329576</v>
+        <v>13.329575999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>992.449000</v>
+        <v>992.44899999999996</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.181000</v>
+        <v>-109.181</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>47997.492905</v>
+        <v>47997.492904999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>13.332637</v>
       </c>
       <c r="BA8" s="1">
-        <v>1000.700000</v>
+        <v>1000.7</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.843000</v>
+        <v>-124.843</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>48008.106827</v>
+        <v>48008.106827000003</v>
       </c>
       <c r="BE8" s="1">
         <v>13.335585</v>
       </c>
       <c r="BF8" s="1">
-        <v>1039.420000</v>
+        <v>1039.42</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.037000</v>
+        <v>-197.03700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>48018.909660</v>
+        <v>48018.909659999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>13.338586</v>
+        <v>13.338585999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1106.130000</v>
+        <v>1106.1300000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-314.264000</v>
+        <v>-314.26400000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>48030.268541</v>
+        <v>48030.268540999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>13.341741</v>
+        <v>13.341741000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1214.440000</v>
+        <v>1214.44</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-499.117000</v>
+        <v>-499.11700000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>48040.677585</v>
+        <v>48040.677584999998</v>
       </c>
       <c r="BT8" s="1">
         <v>13.344633</v>
       </c>
       <c r="BU8" s="1">
-        <v>1336.720000</v>
+        <v>1336.72</v>
       </c>
       <c r="BV8" s="1">
-        <v>-702.335000</v>
+        <v>-702.33500000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>48051.551875</v>
+        <v>48051.551874999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>13.347653</v>
+        <v>13.347652999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1472.830000</v>
+        <v>1472.83</v>
       </c>
       <c r="CA8" s="1">
-        <v>-918.544000</v>
+        <v>-918.54399999999998</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>48063.298130</v>
+        <v>48063.298130000003</v>
       </c>
       <c r="CD8" s="1">
         <v>13.350916</v>
       </c>
       <c r="CE8" s="1">
-        <v>1831.350000</v>
+        <v>1831.35</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1432.060000</v>
+        <v>-1432.06</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>47891.949206</v>
+        <v>47891.949205999998</v>
       </c>
       <c r="B9" s="1">
         <v>13.303319</v>
       </c>
       <c r="C9" s="1">
-        <v>902.303000</v>
+        <v>902.303</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.524000</v>
+        <v>-200.524</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>47902.361223</v>
       </c>
       <c r="G9" s="1">
-        <v>13.306211</v>
+        <v>13.306210999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>919.832000</v>
+        <v>919.83199999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.445000</v>
+        <v>-169.44499999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>47912.850617</v>
+        <v>47912.850616999996</v>
       </c>
       <c r="L9" s="1">
         <v>13.309125</v>
       </c>
       <c r="M9" s="1">
-        <v>942.609000</v>
+        <v>942.60900000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.880000</v>
+        <v>-119.88</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>47923.043403</v>
+        <v>47923.043403000003</v>
       </c>
       <c r="Q9" s="1">
         <v>13.311957</v>
       </c>
       <c r="R9" s="1">
-        <v>949.236000</v>
+        <v>949.23599999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.706000</v>
+        <v>-103.706</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>47933.580911</v>
+        <v>47933.580910999997</v>
       </c>
       <c r="V9" s="1">
-        <v>13.314884</v>
+        <v>13.314883999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>955.618000</v>
+        <v>955.61800000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.515600</v>
+        <v>-88.515600000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>47944.087169</v>
+        <v>47944.087168999999</v>
       </c>
       <c r="AA9" s="1">
         <v>13.317802</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.595000</v>
+        <v>962.59500000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.161700</v>
+        <v>-77.161699999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>47954.688199</v>
+        <v>47954.688198999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>13.320747</v>
+        <v>13.320747000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.439000</v>
+        <v>967.43899999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.074700</v>
+        <v>-75.074700000000007</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>47965.098197</v>
+        <v>47965.098196999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>13.323638</v>
+        <v>13.323638000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.465000</v>
+        <v>974.46500000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.744900</v>
+        <v>-79.744900000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>47975.685799</v>
+        <v>47975.685798999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>13.326579</v>
+        <v>13.326579000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.565000</v>
+        <v>982.56500000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.394900</v>
+        <v>-91.394900000000007</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>47986.773863</v>
+        <v>47986.773863000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>13.329659</v>
+        <v>13.329658999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>992.446000</v>
+        <v>992.44600000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.148000</v>
+        <v>-109.148</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>47997.849561</v>
+        <v>47997.849561000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>13.332736</v>
+        <v>13.332736000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1000.720000</v>
+        <v>1000.72</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.853000</v>
+        <v>-124.85299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>48008.463947</v>
+        <v>48008.463946999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>13.335684</v>
+        <v>13.335684000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1039.390000</v>
+        <v>1039.3900000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.054000</v>
+        <v>-197.054</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>48019.286265</v>
+        <v>48019.286265000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>13.338691</v>
+        <v>13.338691000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1106.100000</v>
+        <v>1106.0999999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-314.251000</v>
+        <v>-314.25099999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>48030.684695</v>
+        <v>48030.684695000004</v>
       </c>
       <c r="BO9" s="1">
-        <v>13.341857</v>
+        <v>13.341856999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1214.460000</v>
+        <v>1214.46</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-499.154000</v>
+        <v>-499.154</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>48041.091775</v>
+        <v>48041.091775000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>13.344748</v>
+        <v>13.344747999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1336.750000</v>
+        <v>1336.75</v>
       </c>
       <c r="BV9" s="1">
-        <v>-702.290000</v>
+        <v>-702.29</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>48052.007698</v>
+        <v>48052.007698000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>13.347780</v>
+        <v>13.34778</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="CA9" s="1">
-        <v>-918.573000</v>
+        <v>-918.57299999999998</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>48063.836785</v>
       </c>
       <c r="CD9" s="1">
-        <v>13.351066</v>
+        <v>13.351065999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1830.710000</v>
+        <v>1830.71</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1433.560000</v>
+        <v>-1433.56</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>47892.313316</v>
       </c>
       <c r="B10" s="1">
-        <v>13.303420</v>
+        <v>13.303419999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>902.248000</v>
+        <v>902.24800000000005</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.670000</v>
+        <v>-200.67</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>47902.743144</v>
       </c>
       <c r="G10" s="1">
-        <v>13.306318</v>
+        <v>13.306317999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>920.299000</v>
+        <v>920.29899999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.458000</v>
+        <v>-169.458</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>47913.194840</v>
+        <v>47913.194839999996</v>
       </c>
       <c r="L10" s="1">
-        <v>13.309221</v>
+        <v>13.309221000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>942.703000</v>
+        <v>942.70299999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.027000</v>
+        <v>-120.027</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>47923.392587</v>
+        <v>47923.392587000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>13.312053</v>
+        <v>13.312053000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>949.213000</v>
+        <v>949.21299999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.655000</v>
+        <v>-103.655</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>47933.930094</v>
+        <v>47933.930094000003</v>
       </c>
       <c r="V10" s="1">
         <v>13.314981</v>
       </c>
       <c r="W10" s="1">
-        <v>955.623000</v>
+        <v>955.62300000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.581700</v>
+        <v>-88.581699999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>47944.515215</v>
+        <v>47944.515214999999</v>
       </c>
       <c r="AA10" s="1">
         <v>13.317921</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.633000</v>
+        <v>962.63300000000004</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.161600</v>
+        <v>-77.161600000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>47954.966417</v>
+        <v>47954.966417000003</v>
       </c>
       <c r="AF10" s="1">
         <v>13.320824</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.268000</v>
+        <v>967.26800000000003</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.985300</v>
+        <v>-74.985299999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>47965.372979</v>
@@ -2642,43 +3058,43 @@
         <v>13.323715</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.482000</v>
+        <v>974.48199999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.768700</v>
+        <v>-79.768699999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>47976.045893</v>
+        <v>47976.045893000002</v>
       </c>
       <c r="AP10" s="1">
         <v>13.326679</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.562000</v>
+        <v>982.56200000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.397000</v>
+        <v>-91.397000000000006</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>47987.169176</v>
+        <v>47987.169176000003</v>
       </c>
       <c r="AU10" s="1">
-        <v>13.329769</v>
+        <v>13.329769000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>992.416000</v>
+        <v>992.41600000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.159000</v>
+        <v>-109.15900000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>47998.209659</v>
@@ -2687,88 +3103,88 @@
         <v>13.332836</v>
       </c>
       <c r="BA10" s="1">
-        <v>1000.690000</v>
+        <v>1000.69</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.850000</v>
+        <v>-124.85</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>48009.193529</v>
+        <v>48009.193528999996</v>
       </c>
       <c r="BE10" s="1">
         <v>13.335887</v>
       </c>
       <c r="BF10" s="1">
-        <v>1039.400000</v>
+        <v>1039.4000000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.058000</v>
+        <v>-197.05799999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>48020.037067</v>
+        <v>48020.037066999997</v>
       </c>
       <c r="BJ10" s="1">
         <v>13.338899</v>
       </c>
       <c r="BK10" s="1">
-        <v>1106.140000</v>
+        <v>1106.1400000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-314.258000</v>
+        <v>-314.25799999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>48031.062636</v>
+        <v>48031.062636000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>13.341962</v>
+        <v>13.341962000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-499.136000</v>
+        <v>-499.13600000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>48041.530734</v>
       </c>
       <c r="BT10" s="1">
-        <v>13.344870</v>
+        <v>13.34487</v>
       </c>
       <c r="BU10" s="1">
-        <v>1336.690000</v>
+        <v>1336.69</v>
       </c>
       <c r="BV10" s="1">
-        <v>-702.127000</v>
+        <v>-702.12699999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>48052.456576</v>
+        <v>48052.456575999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>13.347905</v>
+        <v>13.347905000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1473.010000</v>
+        <v>1473.01</v>
       </c>
       <c r="CA10" s="1">
-        <v>-918.612000</v>
+        <v>-918.61199999999997</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>48064.674561</v>
@@ -2777,180 +3193,180 @@
         <v>13.351298</v>
       </c>
       <c r="CE10" s="1">
-        <v>1830.790000</v>
+        <v>1830.79</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1432.420000</v>
+        <v>-1432.42</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>47892.661461</v>
+        <v>47892.661461000003</v>
       </c>
       <c r="B11" s="1">
-        <v>13.303517</v>
+        <v>13.303516999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>902.191000</v>
+        <v>902.19100000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-200.686000</v>
+        <v>-200.68600000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>47903.091830</v>
+        <v>47903.091829999998</v>
       </c>
       <c r="G11" s="1">
         <v>13.306414</v>
       </c>
       <c r="H11" s="1">
-        <v>919.645000</v>
+        <v>919.64499999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.406000</v>
+        <v>-169.40600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>47913.543527</v>
+        <v>47913.543527000002</v>
       </c>
       <c r="L11" s="1">
-        <v>13.309318</v>
+        <v>13.309317999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>942.662000</v>
+        <v>942.66200000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.067000</v>
+        <v>-120.06699999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>47923.812205</v>
+        <v>47923.812205000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>13.312170</v>
+        <v>13.31217</v>
       </c>
       <c r="R11" s="1">
-        <v>949.214000</v>
+        <v>949.21400000000006</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.681000</v>
+        <v>-103.681</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>47934.341809</v>
+        <v>47934.341808999998</v>
       </c>
       <c r="V11" s="1">
-        <v>13.315095</v>
+        <v>13.315094999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>955.684000</v>
+        <v>955.68399999999997</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.609200</v>
+        <v>-88.609200000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>47944.784575</v>
+        <v>47944.784574999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>13.317996</v>
+        <v>13.317996000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.605000</v>
+        <v>962.60500000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.111600</v>
+        <v>-77.111599999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>47955.309154</v>
+        <v>47955.309154000002</v>
       </c>
       <c r="AF11" s="1">
         <v>13.320919</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.261000</v>
+        <v>967.26099999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.938500</v>
+        <v>-74.938500000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>47965.723674</v>
+        <v>47965.723674000001</v>
       </c>
       <c r="AK11" s="1">
         <v>13.323812</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.477000</v>
+        <v>974.47699999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.755300</v>
+        <v>-79.755300000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>47976.406486</v>
       </c>
       <c r="AP11" s="1">
-        <v>13.326780</v>
+        <v>13.326779999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.539000</v>
+        <v>982.53899999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.399100</v>
+        <v>-91.399100000000004</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>47987.810042</v>
+        <v>47987.810041999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>13.329947</v>
+        <v>13.329947000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>992.434000</v>
+        <v>992.43399999999997</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.167000</v>
+        <v>-109.167</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>47998.924886</v>
+        <v>47998.924886000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>13.333035</v>
+        <v>13.333035000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1000.710000</v>
+        <v>1000.71</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.850000</v>
+        <v>-124.85</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>48009.569033</v>
@@ -2959,28 +3375,28 @@
         <v>13.335991</v>
       </c>
       <c r="BF11" s="1">
-        <v>1039.440000</v>
+        <v>1039.44</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.073000</v>
+        <v>-197.07300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>48020.461644</v>
+        <v>48020.461644000003</v>
       </c>
       <c r="BJ11" s="1">
         <v>13.339017</v>
       </c>
       <c r="BK11" s="1">
-        <v>1106.130000</v>
+        <v>1106.1300000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-314.270000</v>
+        <v>-314.27</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>48031.493165</v>
@@ -2989,604 +3405,604 @@
         <v>13.342081</v>
       </c>
       <c r="BP11" s="1">
-        <v>1214.480000</v>
+        <v>1214.48</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-499.144000</v>
+        <v>-499.14400000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>48042.267264</v>
+        <v>48042.267264000002</v>
       </c>
       <c r="BT11" s="1">
         <v>13.345074</v>
       </c>
       <c r="BU11" s="1">
-        <v>1336.690000</v>
+        <v>1336.69</v>
       </c>
       <c r="BV11" s="1">
-        <v>-702.030000</v>
+        <v>-702.03</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>48053.241775</v>
+        <v>48053.241775000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>13.348123</v>
+        <v>13.348122999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1472.870000</v>
+        <v>1472.87</v>
       </c>
       <c r="CA11" s="1">
-        <v>-918.609000</v>
+        <v>-918.60900000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>48064.915585</v>
+        <v>48064.915585000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>13.351365</v>
+        <v>13.351364999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1830.690000</v>
+        <v>1830.69</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1432.390000</v>
+        <v>-1432.39</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>47893.002744</v>
+        <v>47893.002743999998</v>
       </c>
       <c r="B12" s="1">
-        <v>13.303612</v>
+        <v>13.303611999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>902.114000</v>
+        <v>902.11400000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-200.614000</v>
+        <v>-200.614</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>47903.442038</v>
+        <v>47903.442038000001</v>
       </c>
       <c r="G12" s="1">
         <v>13.306512</v>
       </c>
       <c r="H12" s="1">
-        <v>919.862000</v>
+        <v>919.86199999999997</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.640000</v>
+        <v>-169.64</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>47913.965623</v>
+        <v>47913.965622999996</v>
       </c>
       <c r="L12" s="1">
-        <v>13.309435</v>
+        <v>13.309435000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>942.590000</v>
+        <v>942.59</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.918000</v>
+        <v>-119.91800000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>47924.093930</v>
+        <v>47924.093930000003</v>
       </c>
       <c r="Q12" s="1">
         <v>13.312248</v>
       </c>
       <c r="R12" s="1">
-        <v>949.200000</v>
+        <v>949.2</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.681000</v>
+        <v>-103.681</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>47934.632428</v>
+        <v>47934.632427999997</v>
       </c>
       <c r="V12" s="1">
-        <v>13.315176</v>
+        <v>13.315175999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>955.571000</v>
+        <v>955.57100000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.554200</v>
+        <v>-88.554199999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>47945.132269</v>
+        <v>47945.132269000002</v>
       </c>
       <c r="AA12" s="1">
         <v>13.318092</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.609000</v>
+        <v>962.60900000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.154200</v>
+        <v>-77.154200000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>47955.648418</v>
+        <v>47955.648417999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>13.321013</v>
+        <v>13.321013000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.259000</v>
+        <v>967.25900000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.008100</v>
+        <v>-75.008099999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>47966.071346</v>
+        <v>47966.071345999997</v>
       </c>
       <c r="AK12" s="1">
         <v>13.323909</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.465000</v>
+        <v>974.46500000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.749900</v>
+        <v>-79.749899999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>47977.134116</v>
+        <v>47977.134116000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>13.326982</v>
+        <v>13.326981999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.555000</v>
+        <v>982.55499999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.399300</v>
+        <v>-91.399299999999997</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>47988.263350</v>
+        <v>47988.263350000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>13.330073</v>
+        <v>13.330073000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>992.426000</v>
+        <v>992.42600000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.167000</v>
+        <v>-109.167</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>47999.287929</v>
+        <v>47999.287928999998</v>
       </c>
       <c r="AZ12" s="1">
         <v>13.333136</v>
       </c>
       <c r="BA12" s="1">
-        <v>1000.710000</v>
+        <v>1000.71</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.822000</v>
+        <v>-124.822</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>48009.929131</v>
+        <v>48009.929130999997</v>
       </c>
       <c r="BE12" s="1">
         <v>13.336091</v>
       </c>
       <c r="BF12" s="1">
-        <v>1039.420000</v>
+        <v>1039.42</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.063000</v>
+        <v>-197.06299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>48021.091597</v>
+        <v>48021.091596999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>13.339192</v>
+        <v>13.339192000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.120000</v>
+        <v>1106.1199999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-314.275000</v>
+        <v>-314.27499999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>48032.195531</v>
+        <v>48032.195530999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>13.342277</v>
+        <v>13.342276999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1214.440000</v>
+        <v>1214.44</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-499.096000</v>
+        <v>-499.096</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>48042.402702</v>
+        <v>48042.402701999999</v>
       </c>
       <c r="BT12" s="1">
         <v>13.345112</v>
       </c>
       <c r="BU12" s="1">
-        <v>1336.640000</v>
+        <v>1336.64</v>
       </c>
       <c r="BV12" s="1">
-        <v>-701.896000</v>
+        <v>-701.89599999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>48053.387071</v>
+        <v>48053.387070999997</v>
       </c>
       <c r="BY12" s="1">
         <v>13.348163</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1472.770000</v>
+        <v>1472.77</v>
       </c>
       <c r="CA12" s="1">
-        <v>-918.690000</v>
+        <v>-918.69</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>48065.436879</v>
+        <v>48065.436879000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>13.351510</v>
+        <v>13.351509999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1830.980000</v>
+        <v>1830.98</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1433.750000</v>
+        <v>-1433.75</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>47893.425796</v>
+        <v>47893.425796000003</v>
       </c>
       <c r="B13" s="1">
-        <v>13.303729</v>
+        <v>13.303729000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>902.352000</v>
+        <v>902.35199999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-200.659000</v>
+        <v>-200.65899999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>47903.936516</v>
+        <v>47903.936516000002</v>
       </c>
       <c r="G13" s="1">
         <v>13.306649</v>
       </c>
       <c r="H13" s="1">
-        <v>919.774000</v>
+        <v>919.774</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.551000</v>
+        <v>-169.55099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>47914.241431</v>
+        <v>47914.241431000002</v>
       </c>
       <c r="L13" s="1">
         <v>13.309512</v>
       </c>
       <c r="M13" s="1">
-        <v>942.692000</v>
+        <v>942.69200000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.998000</v>
+        <v>-119.998</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>47924.442154</v>
+        <v>47924.442153999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>13.312345</v>
+        <v>13.312345000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>949.222000</v>
+        <v>949.22199999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.626000</v>
+        <v>-103.626</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>47934.977149</v>
+        <v>47934.977148999998</v>
       </c>
       <c r="V13" s="1">
-        <v>13.315271</v>
+        <v>13.315270999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>955.616000</v>
+        <v>955.61599999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.592500</v>
+        <v>-88.592500000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>47945.482415</v>
+        <v>47945.482414999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>13.318190</v>
+        <v>13.31819</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.636000</v>
+        <v>962.63599999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.165900</v>
+        <v>-77.165899999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>47956.339343</v>
       </c>
       <c r="AF13" s="1">
-        <v>13.321205</v>
+        <v>13.321205000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.274000</v>
+        <v>967.274</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.925800</v>
+        <v>-74.925799999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>47966.764763</v>
+        <v>47966.764762999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>13.324101</v>
+        <v>13.324101000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.479000</v>
+        <v>974.47900000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.732500</v>
+        <v>-79.732500000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>47977.508595</v>
+        <v>47977.508594999999</v>
       </c>
       <c r="AP13" s="1">
         <v>13.327086</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.557000</v>
+        <v>982.55700000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.402800</v>
+        <v>-91.402799999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>47988.627412</v>
+        <v>47988.627412000002</v>
       </c>
       <c r="AU13" s="1">
         <v>13.330174</v>
       </c>
       <c r="AV13" s="1">
-        <v>992.460000</v>
+        <v>992.46</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.176000</v>
+        <v>-109.176</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>47999.645048</v>
+        <v>47999.645047999998</v>
       </c>
       <c r="AZ13" s="1">
         <v>13.333235</v>
       </c>
       <c r="BA13" s="1">
-        <v>1000.690000</v>
+        <v>1000.69</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.841000</v>
+        <v>-124.84099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>48010.601216</v>
+        <v>48010.601216000003</v>
       </c>
       <c r="BE13" s="1">
         <v>13.336278</v>
       </c>
       <c r="BF13" s="1">
-        <v>1039.380000</v>
+        <v>1039.3800000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.057000</v>
+        <v>-197.05699999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>48021.570203</v>
+        <v>48021.570203000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>13.339325</v>
+        <v>13.339325000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1106.110000</v>
+        <v>1106.1099999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-314.252000</v>
+        <v>-314.25200000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>48032.315036</v>
       </c>
       <c r="BO13" s="1">
-        <v>13.342310</v>
+        <v>13.342309999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-499.166000</v>
+        <v>-499.166</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>48042.817381</v>
+        <v>48042.817381000001</v>
       </c>
       <c r="BT13" s="1">
         <v>13.345227</v>
       </c>
       <c r="BU13" s="1">
-        <v>1336.600000</v>
+        <v>1336.6</v>
       </c>
       <c r="BV13" s="1">
-        <v>-701.911000</v>
+        <v>-701.91099999999994</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>48053.799246</v>
+        <v>48053.799246000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>13.348278</v>
+        <v>13.348278000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="CA13" s="1">
-        <v>-918.684000</v>
+        <v>-918.68399999999997</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>48065.955731</v>
+        <v>48065.955731000002</v>
       </c>
       <c r="CD13" s="1">
         <v>13.351654</v>
       </c>
       <c r="CE13" s="1">
-        <v>1830.350000</v>
+        <v>1830.35</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1433.290000</v>
+        <v>-1433.29</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>47893.700610</v>
+        <v>47893.70061</v>
       </c>
       <c r="B14" s="1">
         <v>13.303806</v>
       </c>
       <c r="C14" s="1">
-        <v>902.311000</v>
+        <v>902.31100000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.638000</v>
+        <v>-200.63800000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>47904.124006</v>
+        <v>47904.124005999998</v>
       </c>
       <c r="G14" s="1">
         <v>13.306701</v>
       </c>
       <c r="H14" s="1">
-        <v>919.861000</v>
+        <v>919.86099999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.410000</v>
+        <v>-169.41</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>47914.586614</v>
@@ -3595,557 +4011,557 @@
         <v>13.309607</v>
       </c>
       <c r="M14" s="1">
-        <v>942.636000</v>
+        <v>942.63599999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.096000</v>
+        <v>-120.096</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>47924.788361</v>
+        <v>47924.788360999999</v>
       </c>
       <c r="Q14" s="1">
         <v>13.312441</v>
       </c>
       <c r="R14" s="1">
-        <v>949.230000</v>
+        <v>949.23</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.696000</v>
+        <v>-103.696</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>47935.320379</v>
+        <v>47935.320378999997</v>
       </c>
       <c r="V14" s="1">
         <v>13.315367</v>
       </c>
       <c r="W14" s="1">
-        <v>955.630000</v>
+        <v>955.63</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.569200</v>
+        <v>-88.569199999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>47946.178797</v>
       </c>
       <c r="AA14" s="1">
-        <v>13.318383</v>
+        <v>13.318383000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.588000</v>
+        <v>962.58799999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.225100</v>
+        <v>-77.225099999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>47956.681123</v>
+        <v>47956.681123000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>13.321300</v>
+        <v>13.321300000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.183000</v>
+        <v>967.18299999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.886900</v>
+        <v>-74.886899999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>47967.116417</v>
+        <v>47967.116416999997</v>
       </c>
       <c r="AK14" s="1">
         <v>13.324199</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.450000</v>
+        <v>974.45</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.757400</v>
+        <v>-79.757400000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>47977.892038</v>
+        <v>47977.892037999998</v>
       </c>
       <c r="AP14" s="1">
         <v>13.327192</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.572000</v>
+        <v>982.572</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.390500</v>
+        <v>-91.390500000000003</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>47989.303461</v>
+        <v>47989.303461000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>13.330362</v>
+        <v>13.330361999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>992.446000</v>
+        <v>992.44600000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.135000</v>
+        <v>-109.13500000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>48000.319606</v>
+        <v>48000.319605999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>13.333422</v>
+        <v>13.333422000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1000.700000</v>
+        <v>1000.7</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.841000</v>
+        <v>-124.84099999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>48011.047575</v>
+        <v>48011.047574999997</v>
       </c>
       <c r="BE14" s="1">
         <v>13.336402</v>
       </c>
       <c r="BF14" s="1">
-        <v>1039.420000</v>
+        <v>1039.42</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.058000</v>
+        <v>-197.05799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>48021.944687</v>
+        <v>48021.944687000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>13.339429</v>
+        <v>13.339429000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1106.110000</v>
+        <v>1106.1099999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-314.283000</v>
+        <v>-314.28300000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>48032.738652</v>
       </c>
       <c r="BO14" s="1">
-        <v>13.342427</v>
+        <v>13.342427000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1214.480000</v>
+        <v>1214.48</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-499.118000</v>
+        <v>-499.11799999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>48043.240941</v>
+        <v>48043.240940999996</v>
       </c>
       <c r="BT14" s="1">
         <v>13.345345</v>
       </c>
       <c r="BU14" s="1">
-        <v>1336.500000</v>
+        <v>1336.5</v>
       </c>
       <c r="BV14" s="1">
-        <v>-701.840000</v>
+        <v>-701.84</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>48054.257054</v>
+        <v>48054.257054000002</v>
       </c>
       <c r="BY14" s="1">
         <v>13.348405</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1472.830000</v>
+        <v>1472.83</v>
       </c>
       <c r="CA14" s="1">
-        <v>-918.703000</v>
+        <v>-918.70299999999997</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>48066.502287</v>
+        <v>48066.502287000003</v>
       </c>
       <c r="CD14" s="1">
         <v>13.351806</v>
       </c>
       <c r="CE14" s="1">
-        <v>1830.550000</v>
+        <v>1830.55</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1432.400000</v>
+        <v>-1432.4</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>47894.043347</v>
+        <v>47894.043346999999</v>
       </c>
       <c r="B15" s="1">
         <v>13.303901</v>
       </c>
       <c r="C15" s="1">
-        <v>902.143000</v>
+        <v>902.14300000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.632000</v>
+        <v>-200.63200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>47904.467732</v>
+        <v>47904.467731999997</v>
       </c>
       <c r="G15" s="1">
         <v>13.306797</v>
       </c>
       <c r="H15" s="1">
-        <v>920.084000</v>
+        <v>920.08399999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-169.902000</v>
+        <v>-169.90199999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>47914.936791</v>
       </c>
       <c r="L15" s="1">
-        <v>13.309705</v>
+        <v>13.309704999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>942.563000</v>
+        <v>942.56299999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.974000</v>
+        <v>-119.974</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>47925.486200</v>
+        <v>47925.486199999999</v>
       </c>
       <c r="Q15" s="1">
         <v>13.312635</v>
       </c>
       <c r="R15" s="1">
-        <v>949.177000</v>
+        <v>949.17700000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.662000</v>
+        <v>-103.66200000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>47936.007338</v>
+        <v>47936.007338000003</v>
       </c>
       <c r="V15" s="1">
-        <v>13.315558</v>
+        <v>13.315557999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>955.562000</v>
+        <v>955.56200000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.615600</v>
+        <v>-88.615600000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>47946.527980</v>
+        <v>47946.527979999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>13.318480</v>
+        <v>13.318479999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.603000</v>
+        <v>962.60299999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.209200</v>
+        <v>-77.209199999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>47957.020883</v>
+        <v>47957.020882999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>13.321395</v>
+        <v>13.321395000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.397000</v>
+        <v>967.39700000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.962700</v>
+        <v>-74.962699999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>47967.465105</v>
+        <v>47967.465105000003</v>
       </c>
       <c r="AK15" s="1">
         <v>13.324296</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.496000</v>
+        <v>974.49599999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.749900</v>
+        <v>-79.749899999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>47978.554690</v>
+        <v>47978.554689999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.327376</v>
+        <v>13.327375999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.582000</v>
+        <v>982.58199999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.399300</v>
+        <v>-91.399299999999997</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>47989.743443</v>
+        <v>47989.743442999999</v>
       </c>
       <c r="AU15" s="1">
         <v>13.330484</v>
       </c>
       <c r="AV15" s="1">
-        <v>992.437000</v>
+        <v>992.43700000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.175000</v>
+        <v>-109.175</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>48000.756618</v>
+        <v>48000.756617999999</v>
       </c>
       <c r="AZ15" s="1">
         <v>13.333544</v>
       </c>
       <c r="BA15" s="1">
-        <v>1000.720000</v>
+        <v>1000.72</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.840000</v>
+        <v>-124.84</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>48011.409191</v>
+        <v>48011.409190999999</v>
       </c>
       <c r="BE15" s="1">
         <v>13.336503</v>
       </c>
       <c r="BF15" s="1">
-        <v>1039.410000</v>
+        <v>1039.4100000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.054000</v>
+        <v>-197.054</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>48022.351400</v>
+        <v>48022.3514</v>
       </c>
       <c r="BJ15" s="1">
         <v>13.339542</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.130000</v>
+        <v>1106.1300000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-314.266000</v>
+        <v>-314.26600000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>48033.133435</v>
+        <v>48033.133435000003</v>
       </c>
       <c r="BO15" s="1">
         <v>13.342537</v>
       </c>
       <c r="BP15" s="1">
-        <v>1214.480000</v>
+        <v>1214.48</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-499.117000</v>
+        <v>-499.11700000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>48043.662509</v>
+        <v>48043.662509000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>13.345462</v>
+        <v>13.345461999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1336.420000</v>
+        <v>1336.42</v>
       </c>
       <c r="BV15" s="1">
-        <v>-701.820000</v>
+        <v>-701.82</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>48054.705965</v>
+        <v>48054.705965000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.348529</v>
+        <v>13.348528999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1472.930000</v>
+        <v>1472.93</v>
       </c>
       <c r="CA15" s="1">
-        <v>-918.690000</v>
+        <v>-918.69</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>48067.035517</v>
+        <v>48067.035516999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>13.351954</v>
+        <v>13.351953999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1830.770000</v>
+        <v>1830.77</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1433.640000</v>
+        <v>-1433.64</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>47894.383571</v>
+        <v>47894.383570999998</v>
       </c>
       <c r="B16" s="1">
         <v>13.303995</v>
       </c>
       <c r="C16" s="1">
-        <v>902.242000</v>
+        <v>902.24199999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.602000</v>
+        <v>-200.602</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>47905.157172</v>
+        <v>47905.157171999999</v>
       </c>
       <c r="G16" s="1">
         <v>13.306988</v>
       </c>
       <c r="H16" s="1">
-        <v>919.399000</v>
+        <v>919.399</v>
       </c>
       <c r="I16" s="1">
-        <v>-169.478000</v>
+        <v>-169.47800000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>47915.632677</v>
+        <v>47915.632677000001</v>
       </c>
       <c r="L16" s="1">
         <v>13.309898</v>
       </c>
       <c r="M16" s="1">
-        <v>942.496000</v>
+        <v>942.49599999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.994000</v>
+        <v>-119.994</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>47925.835383</v>
+        <v>47925.835382999998</v>
       </c>
       <c r="Q16" s="1">
         <v>13.312732</v>
       </c>
       <c r="R16" s="1">
-        <v>949.179000</v>
+        <v>949.17899999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.662000</v>
+        <v>-103.66200000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>47936.351067</v>
+        <v>47936.351067000003</v>
       </c>
       <c r="V16" s="1">
-        <v>13.315653</v>
+        <v>13.315652999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>955.635000</v>
+        <v>955.63499999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.539300</v>
+        <v>-88.539299999999997</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>47946.879643</v>
@@ -4154,103 +4570,103 @@
         <v>13.318578</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.618000</v>
+        <v>962.61800000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.227900</v>
+        <v>-77.227900000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>47957.678578</v>
+        <v>47957.678577999999</v>
       </c>
       <c r="AF16" s="1">
         <v>13.321577</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.289000</v>
+        <v>967.28899999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.091500</v>
+        <v>-75.091499999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>47968.123298</v>
+        <v>47968.123297999999</v>
       </c>
       <c r="AK16" s="1">
         <v>13.324479</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.472000</v>
+        <v>974.47199999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.738700</v>
+        <v>-79.738699999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>47978.970837</v>
+        <v>47978.970837000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>13.327492</v>
+        <v>13.327491999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.544000</v>
+        <v>982.54399999999998</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.419700</v>
+        <v>-91.419700000000006</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>47990.111938</v>
+        <v>47990.111938000002</v>
       </c>
       <c r="AU16" s="1">
         <v>13.330587</v>
       </c>
       <c r="AV16" s="1">
-        <v>992.417000</v>
+        <v>992.41700000000003</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.131000</v>
+        <v>-109.131</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>48001.113728</v>
+        <v>48001.113727999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>13.333643</v>
       </c>
       <c r="BA16" s="1">
-        <v>1000.690000</v>
+        <v>1000.69</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.842000</v>
+        <v>-124.842</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>48011.771238</v>
+        <v>48011.771238000001</v>
       </c>
       <c r="BE16" s="1">
         <v>13.336603</v>
       </c>
       <c r="BF16" s="1">
-        <v>1039.450000</v>
+        <v>1039.45</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.061000</v>
+        <v>-197.06100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>48022.750687</v>
@@ -4259,333 +4675,333 @@
         <v>13.339653</v>
       </c>
       <c r="BK16" s="1">
-        <v>1106.140000</v>
+        <v>1106.1400000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-314.254000</v>
+        <v>-314.25400000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>48033.556056</v>
+        <v>48033.556056000001</v>
       </c>
       <c r="BO16" s="1">
         <v>13.342654</v>
       </c>
       <c r="BP16" s="1">
-        <v>1214.480000</v>
+        <v>1214.48</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-499.119000</v>
+        <v>-499.11900000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>48044.070220</v>
+        <v>48044.070220000001</v>
       </c>
       <c r="BT16" s="1">
         <v>13.345575</v>
       </c>
       <c r="BU16" s="1">
-        <v>1336.330000</v>
+        <v>1336.33</v>
       </c>
       <c r="BV16" s="1">
-        <v>-701.785000</v>
+        <v>-701.78499999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>48055.161757</v>
+        <v>48055.161757000002</v>
       </c>
       <c r="BY16" s="1">
         <v>13.348656</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1472.970000</v>
+        <v>1472.97</v>
       </c>
       <c r="CA16" s="1">
-        <v>-918.558000</v>
+        <v>-918.55799999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>48067.554300</v>
+        <v>48067.554300000003</v>
       </c>
       <c r="CD16" s="1">
         <v>13.352098</v>
       </c>
       <c r="CE16" s="1">
-        <v>1831.740000</v>
+        <v>1831.74</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1432.700000</v>
+        <v>-1432.7</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>47895.066065</v>
+        <v>47895.066064999999</v>
       </c>
       <c r="B17" s="1">
         <v>13.304185</v>
       </c>
       <c r="C17" s="1">
-        <v>902.110000</v>
+        <v>902.11</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.606000</v>
+        <v>-200.60599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>47905.502388</v>
+        <v>47905.502388000001</v>
       </c>
       <c r="G17" s="1">
         <v>13.307084</v>
       </c>
       <c r="H17" s="1">
-        <v>919.329000</v>
+        <v>919.32899999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>-169.616000</v>
+        <v>-169.61600000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>47915.984873</v>
+        <v>47915.984873000001</v>
       </c>
       <c r="L17" s="1">
         <v>13.309996</v>
       </c>
       <c r="M17" s="1">
-        <v>942.605000</v>
+        <v>942.60500000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.998000</v>
+        <v>-119.998</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>47926.184103</v>
       </c>
       <c r="Q17" s="1">
-        <v>13.312829</v>
+        <v>13.312829000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>949.185000</v>
+        <v>949.18499999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.639000</v>
+        <v>-103.639</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>47936.694297</v>
+        <v>47936.694297000002</v>
       </c>
       <c r="V17" s="1">
-        <v>13.315748</v>
+        <v>13.315747999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>955.595000</v>
+        <v>955.59500000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.464900</v>
+        <v>-88.4649</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>47947.540315</v>
+        <v>47947.540314999998</v>
       </c>
       <c r="AA17" s="1">
         <v>13.318761</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.583000</v>
+        <v>962.58299999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.167100</v>
+        <v>-77.167100000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>47958.054049</v>
+        <v>47958.054048999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>13.321682</v>
+        <v>13.321681999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.231000</v>
+        <v>967.23099999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.052500</v>
+        <v>-75.052499999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>47968.512656</v>
+        <v>47968.512655999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>13.324587</v>
+        <v>13.324586999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.472000</v>
+        <v>974.47199999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.738500</v>
+        <v>-79.738500000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>47979.361187</v>
+        <v>47979.361187000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>13.327600</v>
+        <v>13.3276</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.552000</v>
+        <v>982.55200000000002</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.402100</v>
+        <v>-91.402100000000004</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>47990.474546</v>
+        <v>47990.474545999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>13.330687</v>
+        <v>13.330686999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>992.442000</v>
+        <v>992.44200000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.153000</v>
+        <v>-109.15300000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>48001.471813</v>
+        <v>48001.471812999996</v>
       </c>
       <c r="AZ17" s="1">
-        <v>13.333742</v>
+        <v>13.333742000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1000.690000</v>
+        <v>1000.69</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.846000</v>
+        <v>-124.846</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>48012.192839</v>
+        <v>48012.192839000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>13.336720</v>
+        <v>13.33672</v>
       </c>
       <c r="BF17" s="1">
-        <v>1039.400000</v>
+        <v>1039.4000000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.043000</v>
+        <v>-197.04300000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>48023.099863</v>
+        <v>48023.099863000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>13.339750</v>
+        <v>13.33975</v>
       </c>
       <c r="BK17" s="1">
-        <v>1106.130000</v>
+        <v>1106.1300000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-314.282000</v>
+        <v>-314.28199999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>48033.952826</v>
+        <v>48033.952826000001</v>
       </c>
       <c r="BO17" s="1">
         <v>13.342765</v>
       </c>
       <c r="BP17" s="1">
-        <v>1214.460000</v>
+        <v>1214.46</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-499.129000</v>
+        <v>-499.12900000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>48044.486858</v>
+        <v>48044.486857999997</v>
       </c>
       <c r="BT17" s="1">
         <v>13.345691</v>
       </c>
       <c r="BU17" s="1">
-        <v>1336.190000</v>
+        <v>1336.19</v>
       </c>
       <c r="BV17" s="1">
-        <v>-701.904000</v>
+        <v>-701.904</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>48055.610141</v>
+        <v>48055.610140999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>13.348781</v>
+        <v>13.348781000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1472.790000</v>
+        <v>1472.79</v>
       </c>
       <c r="CA17" s="1">
-        <v>-918.538000</v>
+        <v>-918.53800000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>48068.094443</v>
+        <v>48068.094443000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>13.352248</v>
+        <v>13.352247999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1830.540000</v>
+        <v>1830.54</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1432.860000</v>
+        <v>-1432.86</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>47895.410784</v>
       </c>
@@ -4593,148 +5009,148 @@
         <v>13.304281</v>
       </c>
       <c r="C18" s="1">
-        <v>902.269000</v>
+        <v>902.26900000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-200.635000</v>
+        <v>-200.63499999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>47905.847634</v>
+        <v>47905.847633999998</v>
       </c>
       <c r="G18" s="1">
-        <v>13.307180</v>
+        <v>13.307180000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>919.512000</v>
+        <v>919.51199999999994</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.618000</v>
+        <v>-169.61799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>47916.325620</v>
+        <v>47916.325620000003</v>
       </c>
       <c r="L18" s="1">
-        <v>13.310090</v>
+        <v>13.310090000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>942.655000</v>
+        <v>942.65499999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.920000</v>
+        <v>-119.92</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>47926.841802</v>
+        <v>47926.841802000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>13.313012</v>
+        <v>13.313012000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>949.234000</v>
+        <v>949.23400000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.675000</v>
+        <v>-103.675</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>47937.426759</v>
+        <v>47937.426759000002</v>
       </c>
       <c r="V18" s="1">
-        <v>13.315952</v>
+        <v>13.315951999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>955.623000</v>
+        <v>955.62300000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.567500</v>
+        <v>-88.567499999999995</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>47947.920778</v>
       </c>
       <c r="AA18" s="1">
-        <v>13.318867</v>
+        <v>13.318866999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.586000</v>
+        <v>962.58600000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.137000</v>
+        <v>-77.137</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>47958.398765</v>
+        <v>47958.398764999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>13.321777</v>
+        <v>13.321777000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.276000</v>
+        <v>967.27599999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.069000</v>
+        <v>-75.069000000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>47968.861871</v>
+        <v>47968.861871000001</v>
       </c>
       <c r="AK18" s="1">
         <v>13.324684</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.473000</v>
+        <v>974.47299999999996</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.764100</v>
+        <v>-79.764099999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>47979.720257</v>
+        <v>47979.720257000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>13.327700</v>
+        <v>13.3277</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.567000</v>
+        <v>982.56700000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.417700</v>
+        <v>-91.417699999999996</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>47990.896148</v>
       </c>
       <c r="AU18" s="1">
-        <v>13.330804</v>
+        <v>13.330804000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>992.452000</v>
+        <v>992.452</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.162000</v>
+        <v>-109.16200000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>48001.902339</v>
@@ -4743,13 +5159,13 @@
         <v>13.333862</v>
       </c>
       <c r="BA18" s="1">
-        <v>1000.690000</v>
+        <v>1000.69</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.847000</v>
+        <v>-124.84699999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>48012.491961</v>
@@ -4758,58 +5174,58 @@
         <v>13.336803</v>
       </c>
       <c r="BF18" s="1">
-        <v>1039.400000</v>
+        <v>1039.4000000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.020000</v>
+        <v>-197.02</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>48023.475830</v>
+        <v>48023.475830000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>13.339854</v>
+        <v>13.339854000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1106.110000</v>
+        <v>1106.1099999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-314.264000</v>
+        <v>-314.26400000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>48034.375454</v>
+        <v>48034.375454000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>13.342882</v>
+        <v>13.342881999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1214.460000</v>
+        <v>1214.46</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-499.098000</v>
+        <v>-499.09800000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>48044.897587</v>
+        <v>48044.897586999999</v>
       </c>
       <c r="BT18" s="1">
         <v>13.345805</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.110000</v>
+        <v>1336.11</v>
       </c>
       <c r="BV18" s="1">
-        <v>-701.934000</v>
+        <v>-701.93399999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>48056.032732</v>
@@ -4818,150 +5234,150 @@
         <v>13.348898</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1472.920000</v>
+        <v>1472.92</v>
       </c>
       <c r="CA18" s="1">
-        <v>-918.687000</v>
+        <v>-918.68700000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>48068.632635</v>
+        <v>48068.632635000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.352398</v>
+        <v>13.352398000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1831.520000</v>
+        <v>1831.52</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1433.550000</v>
+        <v>-1433.55</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>47895.753557</v>
+        <v>47895.753557000004</v>
       </c>
       <c r="B19" s="1">
         <v>13.304376</v>
       </c>
       <c r="C19" s="1">
-        <v>902.183000</v>
+        <v>902.18299999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.728000</v>
+        <v>-200.72800000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>47906.513765</v>
+        <v>47906.513765000003</v>
       </c>
       <c r="G19" s="1">
-        <v>13.307365</v>
+        <v>13.307365000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>919.898000</v>
+        <v>919.89800000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.422000</v>
+        <v>-169.422</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>47916.975379</v>
+        <v>47916.975379000003</v>
       </c>
       <c r="L19" s="1">
         <v>13.310271</v>
       </c>
       <c r="M19" s="1">
-        <v>942.573000</v>
+        <v>942.57299999999998</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.029000</v>
+        <v>-120.029</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>47927.230631</v>
+        <v>47927.230630999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>13.313120</v>
+        <v>13.31312</v>
       </c>
       <c r="R19" s="1">
-        <v>949.222000</v>
+        <v>949.22199999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.684000</v>
+        <v>-103.684</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>47937.738872</v>
+        <v>47937.738872000002</v>
       </c>
       <c r="V19" s="1">
         <v>13.316039</v>
       </c>
       <c r="W19" s="1">
-        <v>955.656000</v>
+        <v>955.65599999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.551800</v>
+        <v>-88.5518</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>47948.268474</v>
+        <v>47948.268473999997</v>
       </c>
       <c r="AA19" s="1">
         <v>13.318963</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.608000</v>
+        <v>962.60799999999995</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.140700</v>
+        <v>-77.140699999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>47958.749901</v>
+        <v>47958.749901000003</v>
       </c>
       <c r="AF19" s="1">
         <v>13.321875</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.231000</v>
+        <v>967.23099999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.053200</v>
+        <v>-75.053200000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>47969.207285</v>
+        <v>47969.207284999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>13.324780</v>
+        <v>13.324780000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.506000</v>
+        <v>974.50599999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.736400</v>
+        <v>-79.736400000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>47980.140368</v>
@@ -4970,103 +5386,103 @@
         <v>13.327817</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.570000</v>
+        <v>982.57</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.398500</v>
+        <v>-91.398499999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>47991.203633</v>
+        <v>47991.203632999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>13.330890</v>
+        <v>13.33089</v>
       </c>
       <c r="AV19" s="1">
-        <v>992.435000</v>
+        <v>992.43499999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.148000</v>
+        <v>-109.148</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>48002.192500</v>
+        <v>48002.192499999997</v>
       </c>
       <c r="AZ19" s="1">
         <v>13.333942</v>
       </c>
       <c r="BA19" s="1">
-        <v>1000.730000</v>
+        <v>1000.73</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.842000</v>
+        <v>-124.842</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>48012.853401</v>
       </c>
       <c r="BE19" s="1">
-        <v>13.336904</v>
+        <v>13.336904000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1039.370000</v>
+        <v>1039.3699999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.066000</v>
+        <v>-197.066</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>48023.859239</v>
+        <v>48023.859238999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>13.339961</v>
+        <v>13.339961000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1106.120000</v>
+        <v>1106.1199999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-314.234000</v>
+        <v>-314.23399999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>48034.774218</v>
+        <v>48034.774217999999</v>
       </c>
       <c r="BO19" s="1">
         <v>13.342993</v>
       </c>
       <c r="BP19" s="1">
-        <v>1214.460000</v>
+        <v>1214.46</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-499.105000</v>
+        <v>-499.10500000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>48045.333034</v>
+        <v>48045.333034000003</v>
       </c>
       <c r="BT19" s="1">
         <v>13.345926</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.050000</v>
+        <v>1336.05</v>
       </c>
       <c r="BV19" s="1">
-        <v>-701.987000</v>
+        <v>-701.98699999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>48056.453341</v>
@@ -5075,467 +5491,467 @@
         <v>13.349015</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1472.880000</v>
+        <v>1472.88</v>
       </c>
       <c r="CA19" s="1">
-        <v>-918.584000</v>
+        <v>-918.58399999999995</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>48069.173738</v>
+        <v>48069.173737999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>13.352548</v>
+        <v>13.352548000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1831.160000</v>
+        <v>1831.16</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1432.050000</v>
+        <v>-1432.05</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>47896.397365</v>
+        <v>47896.397364999997</v>
       </c>
       <c r="B20" s="1">
-        <v>13.304555</v>
+        <v>13.304555000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>902.281000</v>
+        <v>902.28099999999995</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.744000</v>
+        <v>-200.744</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>47906.881266</v>
+        <v>47906.881265999997</v>
       </c>
       <c r="G20" s="1">
-        <v>13.307467</v>
+        <v>13.307467000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>919.574000</v>
+        <v>919.57399999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.952000</v>
+        <v>-168.952</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>47917.364243</v>
+        <v>47917.364243000004</v>
       </c>
       <c r="L20" s="1">
-        <v>13.310379</v>
+        <v>13.310378999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>942.549000</v>
+        <v>942.54899999999998</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.905000</v>
+        <v>-119.905</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>47927.578326</v>
+        <v>47927.578326000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>13.313216</v>
+        <v>13.313216000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>949.239000</v>
+        <v>949.23900000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.670000</v>
+        <v>-103.67</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>47938.079625</v>
+        <v>47938.079624999998</v>
       </c>
       <c r="V20" s="1">
-        <v>13.316133</v>
+        <v>13.316133000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>955.633000</v>
+        <v>955.63300000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.484100</v>
+        <v>-88.484099999999998</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>47948.619115</v>
+        <v>47948.619115000001</v>
       </c>
       <c r="AA20" s="1">
         <v>13.319061</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.656000</v>
+        <v>962.65599999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.264600</v>
+        <v>-77.264600000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>47959.171996</v>
+        <v>47959.171995999997</v>
       </c>
       <c r="AF20" s="1">
         <v>13.321992</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.315000</v>
+        <v>967.31500000000005</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.003900</v>
+        <v>-75.003900000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>47969.643535</v>
+        <v>47969.643535000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>13.324901</v>
+        <v>13.324901000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.474000</v>
+        <v>974.47400000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.766400</v>
+        <v>-79.766400000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>47980.439621</v>
+        <v>47980.439620999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>13.327900</v>
+        <v>13.3279</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.556000</v>
+        <v>982.55600000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.406100</v>
+        <v>-91.406099999999995</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>47991.570178</v>
+        <v>47991.570178000002</v>
       </c>
       <c r="AU20" s="1">
         <v>13.330992</v>
       </c>
       <c r="AV20" s="1">
-        <v>992.436000</v>
+        <v>992.43600000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.157000</v>
+        <v>-109.157</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>48002.549651</v>
+        <v>48002.549651000001</v>
       </c>
       <c r="AZ20" s="1">
         <v>13.334042</v>
       </c>
       <c r="BA20" s="1">
-        <v>1000.710000</v>
+        <v>1000.71</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.846000</v>
+        <v>-124.846</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>48013.216117</v>
+        <v>48013.216117000004</v>
       </c>
       <c r="BE20" s="1">
         <v>13.337004</v>
       </c>
       <c r="BF20" s="1">
-        <v>1039.400000</v>
+        <v>1039.4000000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.072000</v>
+        <v>-197.072</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>48024.624070</v>
+        <v>48024.624069999998</v>
       </c>
       <c r="BJ20" s="1">
         <v>13.340173</v>
       </c>
       <c r="BK20" s="1">
-        <v>1106.150000</v>
+        <v>1106.1500000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-314.252000</v>
+        <v>-314.25200000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>48035.189879</v>
+        <v>48035.189878999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.343108</v>
+        <v>13.343108000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1214.460000</v>
+        <v>1214.46</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-499.130000</v>
+        <v>-499.13</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>48045.751684</v>
+        <v>48045.751684000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>13.346042</v>
+        <v>13.346042000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.020000</v>
+        <v>1336.02</v>
       </c>
       <c r="BV20" s="1">
-        <v>-702.072000</v>
+        <v>-702.072</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>48056.878906</v>
+        <v>48056.878905999998</v>
       </c>
       <c r="BY20" s="1">
         <v>13.349133</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1472.870000</v>
+        <v>1472.87</v>
       </c>
       <c r="CA20" s="1">
-        <v>-918.639000</v>
+        <v>-918.63900000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>48069.710935</v>
+        <v>48069.710935000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>13.352697</v>
+        <v>13.352696999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1830.950000</v>
+        <v>1830.95</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1433.800000</v>
+        <v>-1433.8</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>47896.774286</v>
       </c>
       <c r="B21" s="1">
-        <v>13.304660</v>
+        <v>13.30466</v>
       </c>
       <c r="C21" s="1">
-        <v>902.249000</v>
+        <v>902.24900000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>-200.723000</v>
+        <v>-200.72300000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>47907.225489</v>
+        <v>47907.225488999997</v>
       </c>
       <c r="G21" s="1">
         <v>13.307563</v>
       </c>
       <c r="H21" s="1">
-        <v>920.264000</v>
+        <v>920.26400000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.846000</v>
+        <v>-169.846</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>47917.707939</v>
       </c>
       <c r="L21" s="1">
-        <v>13.310474</v>
+        <v>13.310473999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>942.486000</v>
+        <v>942.48599999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.117000</v>
+        <v>-120.117</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>47927.927013</v>
       </c>
       <c r="Q21" s="1">
-        <v>13.313313</v>
+        <v>13.313313000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>949.215000</v>
+        <v>949.21500000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.672000</v>
+        <v>-103.672</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>47938.503239</v>
+        <v>47938.503238999998</v>
       </c>
       <c r="V21" s="1">
-        <v>13.316251</v>
+        <v>13.316250999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>955.617000</v>
+        <v>955.61699999999996</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.576100</v>
+        <v>-88.576099999999997</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>47949.048681</v>
       </c>
       <c r="AA21" s="1">
-        <v>13.319180</v>
+        <v>13.319179999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.621000</v>
+        <v>962.62099999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.248800</v>
+        <v>-77.248800000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>47959.452235</v>
+        <v>47959.452234999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>13.322070</v>
+        <v>13.32207</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.209000</v>
+        <v>967.20899999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.944700</v>
+        <v>-74.944699999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>47969.914387</v>
+        <v>47969.914386999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>13.324976</v>
+        <v>13.324975999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.469000</v>
+        <v>974.46900000000005</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.757900</v>
+        <v>-79.757900000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>47980.801040</v>
+        <v>47980.801039999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>13.328000</v>
+        <v>13.327999999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.575000</v>
+        <v>982.57500000000005</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.405900</v>
+        <v>-91.405900000000003</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>47991.930768</v>
+        <v>47991.930767999998</v>
       </c>
       <c r="AU21" s="1">
         <v>13.331092</v>
       </c>
       <c r="AV21" s="1">
-        <v>992.419000</v>
+        <v>992.41899999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.157000</v>
+        <v>-109.157</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>48002.912194</v>
+        <v>48002.912193999997</v>
       </c>
       <c r="AZ21" s="1">
         <v>13.334142</v>
       </c>
       <c r="BA21" s="1">
-        <v>1000.710000</v>
+        <v>1000.71</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.862000</v>
+        <v>-124.86199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>48013.939748</v>
+        <v>48013.939747999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>13.337205</v>
+        <v>13.337205000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1039.410000</v>
+        <v>1039.4100000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.074000</v>
+        <v>-197.07400000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>48024.998559</v>
@@ -5544,135 +5960,135 @@
         <v>13.340277</v>
       </c>
       <c r="BK21" s="1">
-        <v>1106.120000</v>
+        <v>1106.1199999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-314.256000</v>
+        <v>-314.25599999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>48035.587640</v>
+        <v>48035.587639999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>13.343219</v>
+        <v>13.343218999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-499.155000</v>
+        <v>-499.15499999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>48046.179706</v>
+        <v>48046.179706000003</v>
       </c>
       <c r="BT21" s="1">
         <v>13.346161</v>
       </c>
       <c r="BU21" s="1">
-        <v>1336.040000</v>
+        <v>1336.04</v>
       </c>
       <c r="BV21" s="1">
-        <v>-702.149000</v>
+        <v>-702.149</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>48057.601579</v>
+        <v>48057.601579000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>13.349334</v>
+        <v>13.349334000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1472.810000</v>
+        <v>1472.81</v>
       </c>
       <c r="CA21" s="1">
-        <v>-918.672000</v>
+        <v>-918.67200000000003</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>48070.326937</v>
+        <v>48070.326936999998</v>
       </c>
       <c r="CD21" s="1">
         <v>13.352869</v>
       </c>
       <c r="CE21" s="1">
-        <v>1830.770000</v>
+        <v>1830.77</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1432.030000</v>
+        <v>-1432.03</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>47897.120526</v>
+        <v>47897.120525999999</v>
       </c>
       <c r="B22" s="1">
-        <v>13.304756</v>
+        <v>13.304755999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>902.300000</v>
+        <v>902.3</v>
       </c>
       <c r="D22" s="1">
-        <v>-200.810000</v>
+        <v>-200.81</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>47907.569712</v>
+        <v>47907.569711999997</v>
       </c>
       <c r="G22" s="1">
         <v>13.307658</v>
       </c>
       <c r="H22" s="1">
-        <v>919.859000</v>
+        <v>919.85900000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.137000</v>
+        <v>-169.137</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>47918.054677</v>
       </c>
       <c r="L22" s="1">
-        <v>13.310571</v>
+        <v>13.310570999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>942.637000</v>
+        <v>942.63699999999994</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.028000</v>
+        <v>-120.02800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>47928.337206</v>
+        <v>47928.337205999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>13.313427</v>
+        <v>13.313427000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>949.196000</v>
+        <v>949.19600000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.656000</v>
+        <v>-103.65600000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>47938.781959</v>
@@ -5681,240 +6097,240 @@
         <v>13.316328</v>
       </c>
       <c r="W22" s="1">
-        <v>955.741000</v>
+        <v>955.74099999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.608700</v>
+        <v>-88.608699999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>47949.325917</v>
+        <v>47949.325917000002</v>
       </c>
       <c r="AA22" s="1">
         <v>13.319257</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.659000</v>
+        <v>962.65899999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.220800</v>
+        <v>-77.220799999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>47959.796460</v>
+        <v>47959.796459999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>13.322166</v>
+        <v>13.322165999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.198000</v>
+        <v>967.19799999999998</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.053000</v>
+        <v>-75.052999999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>47970.267997</v>
+        <v>47970.267997000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>13.325074</v>
+        <v>13.325074000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.467000</v>
+        <v>974.46699999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.723600</v>
+        <v>-79.723600000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>47981.160640</v>
+        <v>47981.160640000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>13.328100</v>
+        <v>13.328099999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.565000</v>
+        <v>982.56500000000005</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.392600</v>
+        <v>-91.392600000000002</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>47992.661871</v>
+        <v>47992.661870999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.331295</v>
+        <v>13.331295000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>992.435000</v>
+        <v>992.43499999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.156000</v>
+        <v>-109.15600000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>48003.626433</v>
+        <v>48003.626432999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>13.334341</v>
       </c>
       <c r="BA22" s="1">
-        <v>1000.710000</v>
+        <v>1000.71</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.866000</v>
+        <v>-124.866</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>48014.329139</v>
+        <v>48014.329139000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>13.337314</v>
+        <v>13.337313999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1039.400000</v>
+        <v>1039.4000000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.066000</v>
+        <v>-197.066</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>48025.374020</v>
+        <v>48025.374020000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>13.340382</v>
       </c>
       <c r="BK22" s="1">
-        <v>1106.130000</v>
+        <v>1106.1300000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-314.270000</v>
+        <v>-314.27</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>48036.012214</v>
+        <v>48036.012214000002</v>
       </c>
       <c r="BO22" s="1">
         <v>13.343337</v>
       </c>
       <c r="BP22" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-499.127000</v>
+        <v>-499.12700000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>48046.896920</v>
+        <v>48046.896919999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>13.346360</v>
+        <v>13.346360000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1336.120000</v>
+        <v>1336.12</v>
       </c>
       <c r="BV22" s="1">
-        <v>-702.312000</v>
+        <v>-702.31200000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>48057.741482</v>
+        <v>48057.741481999998</v>
       </c>
       <c r="BY22" s="1">
         <v>13.349373</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1472.930000</v>
+        <v>1472.93</v>
       </c>
       <c r="CA22" s="1">
-        <v>-918.641000</v>
+        <v>-918.64099999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>48070.792184</v>
+        <v>48070.792183999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>13.352998</v>
+        <v>13.352997999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1830.660000</v>
+        <v>1830.66</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1432.330000</v>
+        <v>-1432.33</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>47897.462735</v>
+        <v>47897.462735000001</v>
       </c>
       <c r="B23" s="1">
-        <v>13.304851</v>
+        <v>13.304850999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>902.249000</v>
+        <v>902.24900000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-200.799000</v>
+        <v>-200.79900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>47908.000770</v>
+        <v>47908.000769999999</v>
       </c>
       <c r="G23" s="1">
-        <v>13.307778</v>
+        <v>13.307778000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>919.565000</v>
+        <v>919.56500000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-169.455000</v>
+        <v>-169.45500000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>47918.471282</v>
+        <v>47918.471281999999</v>
       </c>
       <c r="L23" s="1">
         <v>13.310686</v>
       </c>
       <c r="M23" s="1">
-        <v>942.621000</v>
+        <v>942.62099999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.040000</v>
+        <v>-120.04</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>47928.633812</v>
@@ -5923,148 +6339,148 @@
         <v>13.313509</v>
       </c>
       <c r="R23" s="1">
-        <v>949.203000</v>
+        <v>949.20299999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.617000</v>
+        <v>-103.617</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>47939.128662</v>
+        <v>47939.128662000003</v>
       </c>
       <c r="V23" s="1">
-        <v>13.316425</v>
+        <v>13.316425000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>955.709000</v>
+        <v>955.70899999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.601700</v>
+        <v>-88.601699999999994</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>47949.674600</v>
+        <v>47949.674599999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>13.319354</v>
+        <v>13.319354000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.624000</v>
+        <v>962.62400000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.184400</v>
+        <v>-77.184399999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>47960.140682</v>
+        <v>47960.140681999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>13.322261</v>
+        <v>13.322260999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.278000</v>
+        <v>967.27800000000002</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.956800</v>
+        <v>-74.956800000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>47970.962892</v>
+        <v>47970.962892000003</v>
       </c>
       <c r="AK23" s="1">
         <v>13.325267</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.448000</v>
+        <v>974.44799999999998</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.753400</v>
+        <v>-79.753399999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>47981.880829</v>
+        <v>47981.880829000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.328300</v>
+        <v>13.3283</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.545000</v>
+        <v>982.54499999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.396000</v>
+        <v>-91.396000000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>47993.029407</v>
+        <v>47993.029407000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>13.331397</v>
+        <v>13.331397000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>992.456000</v>
+        <v>992.45600000000002</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.151000</v>
+        <v>-109.151</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>48004.089697</v>
+        <v>48004.089697000003</v>
       </c>
       <c r="AZ23" s="1">
         <v>13.334469</v>
       </c>
       <c r="BA23" s="1">
-        <v>1000.700000</v>
+        <v>1000.7</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.846000</v>
+        <v>-124.846</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>48014.689731</v>
+        <v>48014.689730999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>13.337414</v>
+        <v>13.337414000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1039.410000</v>
+        <v>1039.4100000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.051000</v>
+        <v>-197.05099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>48026.083795</v>
+        <v>48026.083794999999</v>
       </c>
       <c r="BJ23" s="1">
         <v>13.340579</v>
       </c>
       <c r="BK23" s="1">
-        <v>1106.100000</v>
+        <v>1106.0999999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-314.285000</v>
+        <v>-314.28500000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>48036.711077</v>
@@ -6073,332 +6489,332 @@
         <v>13.343531</v>
       </c>
       <c r="BP23" s="1">
-        <v>1214.430000</v>
+        <v>1214.43</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-499.115000</v>
+        <v>-499.11500000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>48047.021417</v>
+        <v>48047.021417000004</v>
       </c>
       <c r="BT23" s="1">
-        <v>13.346395</v>
+        <v>13.346394999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1336.080000</v>
+        <v>1336.08</v>
       </c>
       <c r="BV23" s="1">
-        <v>-702.372000</v>
+        <v>-702.37199999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>48058.164041</v>
+        <v>48058.164041000004</v>
       </c>
       <c r="BY23" s="1">
-        <v>13.349490</v>
+        <v>13.349489999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="CA23" s="1">
-        <v>-918.671000</v>
+        <v>-918.67100000000005</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>48071.311527</v>
+        <v>48071.311526999998</v>
       </c>
       <c r="CD23" s="1">
         <v>13.353142</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.560000</v>
+        <v>1830.56</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1433.620000</v>
+        <v>-1433.62</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>47897.882385</v>
+        <v>47897.882384999997</v>
       </c>
       <c r="B24" s="1">
         <v>13.304967</v>
       </c>
       <c r="C24" s="1">
-        <v>902.302000</v>
+        <v>902.30200000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>-200.848000</v>
+        <v>-200.84800000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>47908.271552</v>
+        <v>47908.271551999998</v>
       </c>
       <c r="G24" s="1">
         <v>13.307853</v>
       </c>
       <c r="H24" s="1">
-        <v>920.505000</v>
+        <v>920.505</v>
       </c>
       <c r="I24" s="1">
-        <v>-169.403000</v>
+        <v>-169.40299999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>47918.761803</v>
+        <v>47918.761803000001</v>
       </c>
       <c r="L24" s="1">
         <v>13.310767</v>
       </c>
       <c r="M24" s="1">
-        <v>942.602000</v>
+        <v>942.60199999999998</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.976000</v>
+        <v>-119.976</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>47928.986995</v>
+        <v>47928.986994999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>13.313607</v>
+        <v>13.313606999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>949.230000</v>
+        <v>949.23</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.622000</v>
+        <v>-103.622</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>47939.467927</v>
+        <v>47939.467926999998</v>
       </c>
       <c r="V24" s="1">
         <v>13.316519</v>
       </c>
       <c r="W24" s="1">
-        <v>955.559000</v>
+        <v>955.55899999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.496800</v>
+        <v>-88.496799999999993</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>47950.022791</v>
+        <v>47950.022791000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>13.319451</v>
+        <v>13.319451000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.580000</v>
+        <v>962.58</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.233000</v>
+        <v>-77.233000000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>47960.826681</v>
+        <v>47960.826680999999</v>
       </c>
       <c r="AF24" s="1">
         <v>13.322452</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.277000</v>
+        <v>967.27700000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.966100</v>
+        <v>-74.966099999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>47971.318027</v>
+        <v>47971.318027000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>13.325366</v>
+        <v>13.325366000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.478000</v>
+        <v>974.47799999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.759800</v>
+        <v>-79.759799999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>47982.240463</v>
+        <v>47982.240463000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>13.328400</v>
+        <v>13.3284</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.573000</v>
+        <v>982.57299999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.399000</v>
+        <v>-91.399000000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>47993.391488</v>
+        <v>47993.391488000001</v>
       </c>
       <c r="AU24" s="1">
         <v>13.331498</v>
       </c>
       <c r="AV24" s="1">
-        <v>992.445000</v>
+        <v>992.44500000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.134000</v>
+        <v>-109.134</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>48004.672496</v>
+        <v>48004.672495999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>13.334631</v>
       </c>
       <c r="BA24" s="1">
-        <v>1000.690000</v>
+        <v>1000.69</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.857000</v>
+        <v>-124.857</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>48015.367265</v>
+        <v>48015.367265000001</v>
       </c>
       <c r="BE24" s="1">
         <v>13.337602</v>
       </c>
       <c r="BF24" s="1">
-        <v>1039.430000</v>
+        <v>1039.43</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.044000</v>
+        <v>-197.04400000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>48026.524274</v>
+        <v>48026.524274000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>13.340701</v>
+        <v>13.340700999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1106.130000</v>
+        <v>1106.1300000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-314.249000</v>
+        <v>-314.24900000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>48036.825655</v>
+        <v>48036.825655000001</v>
       </c>
       <c r="BO24" s="1">
         <v>13.343563</v>
       </c>
       <c r="BP24" s="1">
-        <v>1214.420000</v>
+        <v>1214.42</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-499.119000</v>
+        <v>-499.11900000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>48047.458887</v>
+        <v>48047.458887000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>13.346516</v>
+        <v>13.346515999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1336.130000</v>
+        <v>1336.13</v>
       </c>
       <c r="BV24" s="1">
-        <v>-702.415000</v>
+        <v>-702.41499999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>48058.586666</v>
+        <v>48058.586666000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>13.349607</v>
+        <v>13.349607000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1472.910000</v>
+        <v>1472.91</v>
       </c>
       <c r="CA24" s="1">
-        <v>-918.478000</v>
+        <v>-918.47799999999995</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>48071.831513</v>
+        <v>48071.831512999997</v>
       </c>
       <c r="CD24" s="1">
         <v>13.353287</v>
       </c>
       <c r="CE24" s="1">
-        <v>1831.890000</v>
+        <v>1831.89</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1433.200000</v>
+        <v>-1433.2</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>47898.163580</v>
+        <v>47898.16358</v>
       </c>
       <c r="B25" s="1">
         <v>13.305045</v>
       </c>
       <c r="C25" s="1">
-        <v>902.201000</v>
+        <v>902.20100000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.735000</v>
+        <v>-200.73500000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>47908.626718</v>
@@ -6407,133 +6823,133 @@
         <v>13.307952</v>
       </c>
       <c r="H25" s="1">
-        <v>919.829000</v>
+        <v>919.82899999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.620000</v>
+        <v>-169.62</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>47919.105665</v>
+        <v>47919.105665000003</v>
       </c>
       <c r="L25" s="1">
-        <v>13.310863</v>
+        <v>13.310862999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>942.520000</v>
+        <v>942.52</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.028000</v>
+        <v>-120.02800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>47929.336147</v>
+        <v>47929.336147000002</v>
       </c>
       <c r="Q25" s="1">
         <v>13.313704</v>
       </c>
       <c r="R25" s="1">
-        <v>949.218000</v>
+        <v>949.21799999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.683000</v>
+        <v>-103.68300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>47940.156868</v>
+        <v>47940.156867999998</v>
       </c>
       <c r="V25" s="1">
-        <v>13.316710</v>
+        <v>13.31671</v>
       </c>
       <c r="W25" s="1">
-        <v>955.701000</v>
+        <v>955.70100000000002</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.537400</v>
+        <v>-88.537400000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>47950.717191</v>
+        <v>47950.717191000003</v>
       </c>
       <c r="AA25" s="1">
         <v>13.319644</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.664000</v>
+        <v>962.66399999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.149500</v>
+        <v>-77.149500000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>47961.168890</v>
+        <v>47961.168890000001</v>
       </c>
       <c r="AF25" s="1">
         <v>13.322547</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.266000</v>
+        <v>967.26599999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.963500</v>
+        <v>-74.963499999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>47971.663739</v>
+        <v>47971.663739000003</v>
       </c>
       <c r="AK25" s="1">
         <v>13.325462</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.454000</v>
+        <v>974.45399999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.740200</v>
+        <v>-79.740200000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>47982.600064</v>
+        <v>47982.600063999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>13.328500</v>
+        <v>13.3285</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.550000</v>
+        <v>982.55</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.401700</v>
+        <v>-91.401700000000005</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>47994.074479</v>
+        <v>47994.074479000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>13.331687</v>
+        <v>13.331687000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>992.433000</v>
+        <v>992.43299999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.168000</v>
+        <v>-109.16800000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>48005.082724</v>
@@ -6542,362 +6958,363 @@
         <v>13.334745</v>
       </c>
       <c r="BA25" s="1">
-        <v>1000.680000</v>
+        <v>1000.68</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.827000</v>
+        <v>-124.827</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>48015.774448</v>
+        <v>48015.774447999996</v>
       </c>
       <c r="BE25" s="1">
-        <v>13.337715</v>
+        <v>13.337714999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1039.420000</v>
+        <v>1039.42</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.052000</v>
+        <v>-197.05199999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>48026.927490</v>
+        <v>48026.927490000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>13.340813</v>
+        <v>13.340813000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.140000</v>
+        <v>1106.1400000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-314.262000</v>
+        <v>-314.262</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>48037.249241</v>
+        <v>48037.249240999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>13.343680</v>
+        <v>13.343680000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1214.450000</v>
+        <v>1214.45</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-499.111000</v>
+        <v>-499.11099999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>48047.889414</v>
+        <v>48047.889413999997</v>
       </c>
       <c r="BT25" s="1">
         <v>13.346636</v>
       </c>
       <c r="BU25" s="1">
-        <v>1336.260000</v>
+        <v>1336.26</v>
       </c>
       <c r="BV25" s="1">
-        <v>-702.466000</v>
+        <v>-702.46600000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>48059.037993</v>
+        <v>48059.037992999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>13.349733</v>
+        <v>13.349733000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="CA25" s="1">
-        <v>-918.644000</v>
+        <v>-918.64400000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>48072.348630</v>
+        <v>48072.34863</v>
       </c>
       <c r="CD25" s="1">
-        <v>13.353430</v>
+        <v>13.353429999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1831.260000</v>
+        <v>1831.26</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1432.080000</v>
+        <v>-1432.08</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>47898.506316</v>
+        <v>47898.506315999999</v>
       </c>
       <c r="B26" s="1">
-        <v>13.305141</v>
+        <v>13.305141000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>902.247000</v>
+        <v>902.24699999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-200.574000</v>
+        <v>-200.57400000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>47908.971407</v>
+        <v>47908.971406999997</v>
       </c>
       <c r="G26" s="1">
-        <v>13.308048</v>
+        <v>13.308047999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>919.716000</v>
+        <v>919.71600000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.506000</v>
+        <v>-169.506</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>47919.451376</v>
+        <v>47919.451375999997</v>
       </c>
       <c r="L26" s="1">
         <v>13.310959</v>
       </c>
       <c r="M26" s="1">
-        <v>942.672000</v>
+        <v>942.67200000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.980000</v>
+        <v>-119.98</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>47930.034545</v>
+        <v>47930.034545000002</v>
       </c>
       <c r="Q26" s="1">
         <v>13.313898</v>
       </c>
       <c r="R26" s="1">
-        <v>949.192000</v>
+        <v>949.19200000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.723000</v>
+        <v>-103.723</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>47940.500628</v>
+        <v>47940.500628000002</v>
       </c>
       <c r="V26" s="1">
         <v>13.316806</v>
       </c>
       <c r="W26" s="1">
-        <v>955.561000</v>
+        <v>955.56100000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.480600</v>
+        <v>-88.480599999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>47951.066376</v>
+        <v>47951.066376000002</v>
       </c>
       <c r="AA26" s="1">
         <v>13.319741</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.616000</v>
+        <v>962.61599999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.149900</v>
+        <v>-77.149900000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>47961.514602</v>
+        <v>47961.514602000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>13.322643</v>
+        <v>13.322642999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.353000</v>
+        <v>967.35299999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.134800</v>
+        <v>-75.134799999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>47972.336810</v>
+        <v>47972.336810000001</v>
       </c>
       <c r="AK26" s="1">
         <v>13.325649</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.472000</v>
+        <v>974.47199999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.762600</v>
+        <v>-79.762600000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>47983.270123</v>
+        <v>47983.270123000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>13.328686</v>
+        <v>13.328685999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.571000</v>
+        <v>982.57100000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.414600</v>
+        <v>-91.414599999999993</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>47994.485698</v>
+        <v>47994.485697999997</v>
       </c>
       <c r="AU26" s="1">
         <v>13.331802</v>
       </c>
       <c r="AV26" s="1">
-        <v>992.439000</v>
+        <v>992.43899999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.145000</v>
+        <v>-109.145</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>48005.461630</v>
+        <v>48005.461629999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>13.334850</v>
+        <v>13.334849999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1000.700000</v>
+        <v>1000.7</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.849000</v>
+        <v>-124.849</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>48016.160864</v>
+        <v>48016.160863999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>13.337822</v>
+        <v>13.337821999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1039.430000</v>
+        <v>1039.43</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.029000</v>
+        <v>-197.029</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>48027.303985</v>
+        <v>48027.303984999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>13.340918</v>
       </c>
       <c r="BK26" s="1">
-        <v>1106.140000</v>
+        <v>1106.1400000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-314.258000</v>
+        <v>-314.25799999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>48037.664884</v>
+        <v>48037.664883999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>13.343796</v>
+        <v>13.343795999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1214.450000</v>
+        <v>1214.45</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-499.081000</v>
+        <v>-499.08100000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>48048.312997</v>
+        <v>48048.312997000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>13.346754</v>
+        <v>13.346754000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1336.350000</v>
+        <v>1336.35</v>
       </c>
       <c r="BV26" s="1">
-        <v>-702.469000</v>
+        <v>-702.46900000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>48059.467528</v>
+        <v>48059.467528000001</v>
       </c>
       <c r="BY26" s="1">
         <v>13.349852</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1472.980000</v>
+        <v>1472.98</v>
       </c>
       <c r="CA26" s="1">
-        <v>-918.635000</v>
+        <v>-918.63499999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>48072.864732</v>
+        <v>48072.864732000002</v>
       </c>
       <c r="CD26" s="1">
         <v>13.353574</v>
       </c>
       <c r="CE26" s="1">
-        <v>1831.490000</v>
+        <v>1831.49</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1432.010000</v>
+        <v>-1432.01</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>